--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286429.795366389</v>
+        <v>2283975.594677977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9346585.756902967</v>
+        <v>9346585.756902963</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9468465.845572371</v>
+        <v>9468465.845572373</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S4" t="n">
         <v>6.876045741711437</v>
@@ -871,13 +871,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1063,55 +1063,55 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>13.47865120333094</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.73205987707309</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.735575451981</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.274625559508</v>
+        <v>149.829875360745</v>
       </c>
       <c r="D11" t="n">
         <v>307.6847754091834</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9321038607622</v>
+        <v>334.9321038607623</v>
       </c>
       <c r="F11" t="n">
         <v>359.8777795302119</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9245994719899</v>
+        <v>363.92459947199</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6211735084277</v>
+        <v>247.6211735084278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21547401112311</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9246944096035</v>
       </c>
       <c r="U11" t="n">
-        <v>199.7108319784222</v>
+        <v>203.9969969498053</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7539922586354</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2427025059134</v>
+        <v>302.2427025059135</v>
       </c>
       <c r="X11" t="n">
         <v>322.7328344669695</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.239672444554</v>
+        <v>339.2396724445541</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I12" t="n">
-        <v>18.0173004091979</v>
+        <v>17.83651889931502</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S12" t="n">
         <v>128.1548375637818</v>
@@ -1534,19 +1534,19 @@
         <v>101.6172068067128</v>
       </c>
       <c r="E13" t="n">
-        <v>99.43569643506959</v>
+        <v>99.43569643506962</v>
       </c>
       <c r="F13" t="n">
-        <v>98.42278181143166</v>
+        <v>98.42278181143169</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0280534257563</v>
+        <v>119.0280534257559</v>
       </c>
       <c r="H13" t="n">
-        <v>97.76129532015068</v>
+        <v>97.76129532015071</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3695327362996</v>
+        <v>49.36953273629963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95687988320178</v>
+        <v>41.95687988320181</v>
       </c>
       <c r="S13" t="n">
         <v>142.7796710477753</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5528680443678</v>
+        <v>172.5528680443679</v>
       </c>
       <c r="U13" t="n">
         <v>239.2135998874711</v>
@@ -1616,7 +1616,7 @@
         <v>334.9321038607622</v>
       </c>
       <c r="F14" t="n">
-        <v>359.8777795302119</v>
+        <v>103.3186273878965</v>
       </c>
       <c r="G14" t="n">
         <v>363.9245994719899</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21547401112308</v>
+        <v>62.21547401112305</v>
       </c>
       <c r="T14" t="n">
         <v>156.9246944096034</v>
       </c>
       <c r="U14" t="n">
-        <v>203.9969969498053</v>
+        <v>203.9969969498052</v>
       </c>
       <c r="V14" t="n">
-        <v>24.19484011631788</v>
+        <v>280.7539922586353</v>
       </c>
       <c r="W14" t="n">
         <v>302.2427025059134</v>
@@ -1704,7 +1704,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I15" t="n">
-        <v>18.0173004091979</v>
+        <v>17.83651889931502</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S15" t="n">
         <v>128.1548375637818</v>
@@ -1765,25 +1765,25 @@
         <v>132.8337139704377</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2485548871283</v>
+        <v>120.2485548871282</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6172068067128</v>
+        <v>101.6172068067127</v>
       </c>
       <c r="E16" t="n">
-        <v>99.43569643506959</v>
+        <v>99.43569643506956</v>
       </c>
       <c r="F16" t="n">
-        <v>98.42278181143166</v>
+        <v>98.42278181143163</v>
       </c>
       <c r="G16" t="n">
         <v>119.0280534257559</v>
       </c>
       <c r="H16" t="n">
-        <v>97.76129532015068</v>
+        <v>97.76129532015155</v>
       </c>
       <c r="I16" t="n">
-        <v>49.3695327362996</v>
+        <v>49.36953273629958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95687988320178</v>
+        <v>41.95687988320175</v>
       </c>
       <c r="S16" t="n">
         <v>142.7796710477753</v>
@@ -1828,7 +1828,7 @@
         <v>239.5247321250914</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7113891775376</v>
+        <v>178.7113891775375</v>
       </c>
       <c r="Y16" t="n">
         <v>171.5863871405952</v>
@@ -1844,7 +1844,7 @@
         <v>335.735575451981</v>
       </c>
       <c r="C17" t="n">
-        <v>318.274625559508</v>
+        <v>61.71547341719264</v>
       </c>
       <c r="D17" t="n">
         <v>307.6847754091834</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21547401112308</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9246944096034</v>
       </c>
       <c r="U17" t="n">
         <v>203.9969969498053</v>
       </c>
       <c r="V17" t="n">
-        <v>243.3350085370449</v>
+        <v>280.7539922586353</v>
       </c>
       <c r="W17" t="n">
         <v>302.2427025059134</v>
@@ -1941,7 +1941,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I18" t="n">
-        <v>18.0173004091979</v>
+        <v>17.83651889931502</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S18" t="n">
         <v>128.1548375637818</v>
@@ -2008,7 +2008,7 @@
         <v>101.6172068067128</v>
       </c>
       <c r="E19" t="n">
-        <v>99.43569643506959</v>
+        <v>99.43569643507018</v>
       </c>
       <c r="F19" t="n">
         <v>98.42278181143166</v>
@@ -2093,7 +2093,7 @@
         <v>359.8777795302119</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9245994719899</v>
+        <v>182.477108288215</v>
       </c>
       <c r="H20" t="n">
         <v>247.6211735084277</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21547401112308</v>
       </c>
       <c r="T20" t="n">
-        <v>37.69267723695022</v>
+        <v>156.9246944096034</v>
       </c>
       <c r="U20" t="n">
         <v>203.9969969498053</v>
@@ -2178,7 +2178,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I21" t="n">
-        <v>18.0173004091979</v>
+        <v>17.83651889931502</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S21" t="n">
         <v>128.1548375637818</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21547401112311</v>
+        <v>62.21547401112308</v>
       </c>
       <c r="T23" t="n">
         <v>156.9246944096034</v>
@@ -2415,7 +2415,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I24" t="n">
-        <v>18.01730040919756</v>
+        <v>17.83651889931471</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S24" t="n">
         <v>128.1548375637818</v>
@@ -2482,19 +2482,19 @@
         <v>101.6172068067128</v>
       </c>
       <c r="E25" t="n">
-        <v>99.4356964350696</v>
+        <v>99.43569643506959</v>
       </c>
       <c r="F25" t="n">
-        <v>98.42278181143168</v>
+        <v>98.42278181143166</v>
       </c>
       <c r="G25" t="n">
         <v>119.0280534257559</v>
       </c>
       <c r="H25" t="n">
-        <v>97.76129532015071</v>
+        <v>97.76129532015068</v>
       </c>
       <c r="I25" t="n">
-        <v>49.36953273629962</v>
+        <v>49.36953273630018</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I27" t="n">
-        <v>18.01730040919776</v>
+        <v>17.83651889931492</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S27" t="n">
         <v>128.1548375637818</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0263196372555</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>59.40579668188838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.95514609470131</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7779372592748</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5511342558674</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118660989707</v>
+        <v>286.2118660989706</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.06891458125944</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2889,7 +2889,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I30" t="n">
-        <v>18.01730040919776</v>
+        <v>17.83651889931491</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S30" t="n">
         <v>128.1548375637818</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>89.72874582152107</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.14023572970299</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0263196372555</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7595615316503</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.36779894779919</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.95514609470136</v>
       </c>
       <c r="S31" t="n">
         <v>189.7779372592748</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5511342558674</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118660989707</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.5536879678602</v>
+        <v>380.5536879678604</v>
       </c>
       <c r="C32" t="n">
-        <v>363.0927380753872</v>
+        <v>363.0927380753873</v>
       </c>
       <c r="D32" t="n">
-        <v>352.5028879250626</v>
+        <v>352.5028879250627</v>
       </c>
       <c r="E32" t="n">
-        <v>379.7502163766414</v>
+        <v>379.7502163766416</v>
       </c>
       <c r="F32" t="n">
-        <v>404.6958920460911</v>
+        <v>404.6958920460912</v>
       </c>
       <c r="G32" t="n">
-        <v>408.7427119878692</v>
+        <v>408.7427119878693</v>
       </c>
       <c r="H32" t="n">
-        <v>292.439286024307</v>
+        <v>292.4392860243071</v>
       </c>
       <c r="I32" t="n">
-        <v>39.44072708527101</v>
+        <v>39.44072708527113</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.0335865270024</v>
+        <v>107.0335865270025</v>
       </c>
       <c r="T32" t="n">
-        <v>201.7428069254827</v>
+        <v>201.7428069254828</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8151094656845</v>
+        <v>248.8151094656847</v>
       </c>
       <c r="V32" t="n">
-        <v>325.5721047745146</v>
+        <v>325.5721047745147</v>
       </c>
       <c r="W32" t="n">
-        <v>347.0608150217927</v>
+        <v>347.0608150217928</v>
       </c>
       <c r="X32" t="n">
-        <v>367.5509469828487</v>
+        <v>367.5509469828488</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.0577849604333</v>
+        <v>384.0577849604334</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I33" t="n">
-        <v>17.83651889931503</v>
+        <v>17.83651889931501</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6518264863171</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>165.0666674030076</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.253808950949</v>
       </c>
       <c r="F34" t="n">
-        <v>108.7620786514467</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>123.1924687747688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.77499239908106</v>
+        <v>86.77499239908117</v>
       </c>
       <c r="S34" t="n">
-        <v>187.5977835636546</v>
+        <v>187.5977835636547</v>
       </c>
       <c r="T34" t="n">
-        <v>217.3709805602471</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.0317124033504</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282077</v>
+        <v>249.9574896282078</v>
       </c>
       <c r="W34" t="n">
-        <v>284.3428446409707</v>
+        <v>284.3428446409708</v>
       </c>
       <c r="X34" t="n">
-        <v>223.5295016934168</v>
+        <v>223.529501693417</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.4044996564745</v>
+        <v>216.4044996564746</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3272,13 @@
         <v>307.6847754091834</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9321038607622</v>
+        <v>334.9321038607623</v>
       </c>
       <c r="F35" t="n">
         <v>359.8777795302119</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9245994719899</v>
+        <v>363.92459947199</v>
       </c>
       <c r="H35" t="n">
         <v>247.6211735084277</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21547401112309</v>
+        <v>62.21547401112311</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9246944096034</v>
+        <v>156.9246944096035</v>
       </c>
       <c r="U35" t="n">
         <v>203.9969969498053</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7539922586353</v>
+        <v>280.7539922586354</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2427025059134</v>
+        <v>302.2427025059135</v>
       </c>
       <c r="X35" t="n">
         <v>322.7328344669695</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.239672444554</v>
+        <v>339.2396724445541</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I36" t="n">
-        <v>18.01730040919758</v>
+        <v>17.83651889931473</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S36" t="n">
         <v>128.1548375637818</v>
@@ -3430,19 +3430,19 @@
         <v>101.6172068067128</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4356964350696</v>
+        <v>99.43569643506962</v>
       </c>
       <c r="F37" t="n">
-        <v>98.42278181143168</v>
+        <v>98.42278181143169</v>
       </c>
       <c r="G37" t="n">
         <v>119.0280534257559</v>
       </c>
       <c r="H37" t="n">
-        <v>97.76129532015069</v>
+        <v>97.76129532015071</v>
       </c>
       <c r="I37" t="n">
-        <v>49.36953273629962</v>
+        <v>49.36953273629964</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95687988320179</v>
+        <v>41.95687988320181</v>
       </c>
       <c r="S37" t="n">
         <v>142.7796710477753</v>
@@ -3509,16 +3509,16 @@
         <v>307.6847754091834</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9321038607622</v>
+        <v>334.9321038607623</v>
       </c>
       <c r="F38" t="n">
         <v>359.8777795302119</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9245994719899</v>
+        <v>363.92459947199</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6211735084277</v>
+        <v>247.6211735084278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21547401112306</v>
+        <v>62.21547401112314</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9246944096034</v>
+        <v>156.9246944096035</v>
       </c>
       <c r="U38" t="n">
-        <v>203.9969969498052</v>
+        <v>203.9969969498053</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7539922586353</v>
+        <v>280.7539922586354</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2427025059134</v>
+        <v>302.2427025059135</v>
       </c>
       <c r="X38" t="n">
         <v>322.7328344669695</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.239672444554</v>
+        <v>339.2396724445541</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>135.0000791355524</v>
       </c>
       <c r="H39" t="n">
-        <v>89.60276644306002</v>
+        <v>89.60276644306001</v>
       </c>
       <c r="I39" t="n">
-        <v>18.01730040919668</v>
+        <v>17.83651889931473</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S39" t="n">
         <v>128.1548375637818</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8337139704377</v>
+        <v>132.8337139704378</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2485548871282</v>
+        <v>120.2485548871283</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6172068067127</v>
+        <v>101.6172068067128</v>
       </c>
       <c r="E40" t="n">
-        <v>99.43569643506956</v>
+        <v>99.43569643506964</v>
       </c>
       <c r="F40" t="n">
-        <v>98.42278181143163</v>
+        <v>98.42278181143172</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0280534257558</v>
+        <v>119.0280534257559</v>
       </c>
       <c r="H40" t="n">
-        <v>97.76129532015067</v>
+        <v>97.76129532015074</v>
       </c>
       <c r="I40" t="n">
-        <v>49.36953273629959</v>
+        <v>49.36953273629966</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95687988320178</v>
+        <v>41.95687988320184</v>
       </c>
       <c r="S40" t="n">
         <v>142.7796710477753</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5528680443678</v>
+        <v>172.5528680443679</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2135998874711</v>
+        <v>239.2135998874712</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1393771123284</v>
+        <v>205.1393771123285</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5247321250914</v>
+        <v>239.5247321250915</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7113891775375</v>
+        <v>178.7113891775376</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5863871405952</v>
+        <v>171.5863871405953</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>307.6847754091834</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9321038607623</v>
+        <v>334.9321038607622</v>
       </c>
       <c r="F41" t="n">
         <v>359.8777795302119</v>
       </c>
       <c r="G41" t="n">
-        <v>363.92459947199</v>
+        <v>363.9245994719899</v>
       </c>
       <c r="H41" t="n">
         <v>247.6211735084277</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21547401112311</v>
+        <v>62.21547401112309</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9246944096035</v>
+        <v>156.9246944096034</v>
       </c>
       <c r="U41" t="n">
         <v>203.9969969498053</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7539922586354</v>
+        <v>280.7539922586353</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2427025059135</v>
+        <v>302.2427025059134</v>
       </c>
       <c r="X41" t="n">
         <v>322.7328344669695</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2396724445541</v>
+        <v>339.239672444554</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I42" t="n">
-        <v>18.01730040919756</v>
+        <v>17.83651889931474</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S42" t="n">
         <v>128.1548375637818</v>
@@ -3904,19 +3904,19 @@
         <v>101.6172068067128</v>
       </c>
       <c r="E43" t="n">
-        <v>99.43569643506962</v>
+        <v>99.4356964350696</v>
       </c>
       <c r="F43" t="n">
-        <v>98.42278181143169</v>
+        <v>98.42278181143168</v>
       </c>
       <c r="G43" t="n">
         <v>119.0280534257559</v>
       </c>
       <c r="H43" t="n">
-        <v>97.76129532015071</v>
+        <v>97.76129532015069</v>
       </c>
       <c r="I43" t="n">
-        <v>49.36953273629963</v>
+        <v>49.36953273629962</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95687988320181</v>
+        <v>41.95687988320179</v>
       </c>
       <c r="S43" t="n">
         <v>142.7796710477753</v>
@@ -3952,7 +3952,7 @@
         <v>172.5528680443679</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2135998874712</v>
+        <v>239.2135998874711</v>
       </c>
       <c r="V43" t="n">
         <v>205.1393771123284</v>
@@ -3989,7 +3989,7 @@
         <v>359.8777795302119</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9245994719909</v>
+        <v>363.9245994719899</v>
       </c>
       <c r="H44" t="n">
         <v>247.6211735084277</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21547401112305</v>
+        <v>62.21547401112309</v>
       </c>
       <c r="T44" t="n">
         <v>156.9246944096034</v>
       </c>
       <c r="U44" t="n">
-        <v>203.9969969498052</v>
+        <v>203.9969969498053</v>
       </c>
       <c r="V44" t="n">
         <v>280.7539922586353</v>
@@ -4074,7 +4074,7 @@
         <v>89.60276644306001</v>
       </c>
       <c r="I45" t="n">
-        <v>18.01730040919756</v>
+        <v>17.83651889931474</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.1807815098829053</v>
       </c>
       <c r="S45" t="n">
         <v>128.1548375637818</v>
@@ -4135,25 +4135,25 @@
         <v>132.8337139704377</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2485548871282</v>
+        <v>120.2485548871283</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6172068067127</v>
+        <v>101.6172068067128</v>
       </c>
       <c r="E46" t="n">
-        <v>99.43569643506956</v>
+        <v>99.4356964350696</v>
       </c>
       <c r="F46" t="n">
-        <v>98.42278181143163</v>
+        <v>98.42278181143168</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0280534257558</v>
+        <v>119.0280534257559</v>
       </c>
       <c r="H46" t="n">
-        <v>97.76129532015065</v>
+        <v>97.76129532015069</v>
       </c>
       <c r="I46" t="n">
-        <v>49.36953273630063</v>
+        <v>49.3695327362995</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95687988320175</v>
+        <v>41.95687988320179</v>
       </c>
       <c r="S46" t="n">
         <v>142.7796710477753</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5528680443678</v>
+        <v>172.5528680443679</v>
       </c>
       <c r="U46" t="n">
         <v>239.2135998874711</v>
@@ -4198,7 +4198,7 @@
         <v>239.5247321250914</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7113891775375</v>
+        <v>178.7113891775376</v>
       </c>
       <c r="Y46" t="n">
         <v>171.5863871405952</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H2" t="n">
         <v>0.5500836593369149</v>
@@ -4340,10 +4340,10 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>20.97193951221988</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4358,22 +4358,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
         <v>0.5500836593369149</v>
@@ -4413,16 +4413,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M3" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="M3" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="N3" t="n">
-        <v>20.69689768255142</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U3" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>13.6131814684388</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.667680719235332</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.667680719235332</v>
       </c>
       <c r="W3" t="n">
         <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
         <v>0.5500836593369149</v>
@@ -4492,10 +4492,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
@@ -4510,28 +4510,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
         <v>14.44108515774386</v>
@@ -4571,7 +4571,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
         <v>20.69689768255142</v>
@@ -4586,31 +4586,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S5" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="S5" t="n">
-        <v>14.44108515774386</v>
-      </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O6" t="n">
         <v>20.69689768255142</v>
@@ -4671,25 +4671,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,13 +4729,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
@@ -4744,31 +4744,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F8" t="n">
-        <v>30.29632881784312</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G8" t="n">
-        <v>14.83901819649459</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H8" t="n">
         <v>1.224219001210804</v>
@@ -4805,13 +4805,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
         <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
         <v>30.9115297805728</v>
@@ -4829,25 +4829,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,46 +4887,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4969,43 +4969,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2022.581209726901</v>
+        <v>1852.434997404919</v>
       </c>
       <c r="C11" t="n">
         <v>1701.091688959722</v>
@@ -5027,64 +5027,64 @@
         <v>1051.983730101191</v>
       </c>
       <c r="F11" t="n">
-        <v>688.4708214848151</v>
+        <v>688.4708214848154</v>
       </c>
       <c r="G11" t="n">
-        <v>320.8702159575527</v>
+        <v>320.8702159575528</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="I11" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J11" t="n">
-        <v>259.5311583952871</v>
+        <v>259.5311583952872</v>
       </c>
       <c r="K11" t="n">
-        <v>593.2069661503904</v>
+        <v>737.0593708628356</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.063073161782</v>
+        <v>1187.915477874227</v>
       </c>
       <c r="M11" t="n">
-        <v>1577.396800327627</v>
+        <v>1721.249205040072</v>
       </c>
       <c r="N11" t="n">
-        <v>2123.974233161093</v>
+        <v>2267.826637873538</v>
       </c>
       <c r="O11" t="n">
-        <v>2626.756542627048</v>
+        <v>2770.608947339494</v>
       </c>
       <c r="P11" t="n">
-        <v>3021.368610617445</v>
+        <v>3165.22101532989</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.444753445452</v>
+        <v>3413.385497771201</v>
       </c>
       <c r="R11" t="n">
-        <v>3537.390923714619</v>
+        <v>3537.39092371462</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.390923714619</v>
+        <v>3474.547010572071</v>
       </c>
       <c r="T11" t="n">
-        <v>3537.390923714619</v>
+        <v>3316.037218239139</v>
       </c>
       <c r="U11" t="n">
-        <v>3335.662810605101</v>
+        <v>3109.979645562568</v>
       </c>
       <c r="V11" t="n">
-        <v>3335.662810605101</v>
+        <v>2826.389754392229</v>
       </c>
       <c r="W11" t="n">
-        <v>3030.367151508219</v>
+        <v>2521.094095295347</v>
       </c>
       <c r="X11" t="n">
-        <v>2704.374389420371</v>
+        <v>2195.101333207499</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.708053617791</v>
+        <v>1852.434997404919</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>944.9781249283828</v>
+        <v>944.7955173426426</v>
       </c>
       <c r="C12" t="n">
-        <v>770.5250956472559</v>
+        <v>770.3424880615156</v>
       </c>
       <c r="D12" t="n">
-        <v>621.5906859860046</v>
+        <v>621.4080784002643</v>
       </c>
       <c r="E12" t="n">
-        <v>462.3532309805491</v>
+        <v>462.1706233948088</v>
       </c>
       <c r="F12" t="n">
-        <v>315.8186730074341</v>
+        <v>315.6360654216938</v>
       </c>
       <c r="G12" t="n">
-        <v>179.4549567088963</v>
+        <v>179.2723491231561</v>
       </c>
       <c r="H12" t="n">
-        <v>88.94711181691652</v>
+        <v>88.76450423117628</v>
       </c>
       <c r="I12" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J12" t="n">
         <v>164.3680354788929</v>
@@ -5142,28 +5142,28 @@
         <v>2568.357427914993</v>
       </c>
       <c r="R12" t="n">
-        <v>2568.357427914993</v>
+        <v>2568.174820329253</v>
       </c>
       <c r="S12" t="n">
-        <v>2438.908097042486</v>
+        <v>2438.725489456746</v>
       </c>
       <c r="T12" t="n">
-        <v>2246.262613279411</v>
+        <v>2246.080005693671</v>
       </c>
       <c r="U12" t="n">
-        <v>2018.194725878882</v>
+        <v>2018.012118293142</v>
       </c>
       <c r="V12" t="n">
-        <v>1783.042617647139</v>
+        <v>1782.860010061399</v>
       </c>
       <c r="W12" t="n">
-        <v>1528.805260918938</v>
+        <v>1528.622653333197</v>
       </c>
       <c r="X12" t="n">
-        <v>1320.953760713405</v>
+        <v>1320.771153127665</v>
       </c>
       <c r="Y12" t="n">
-        <v>1113.193461948451</v>
+        <v>1113.010854362711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.5590522344426</v>
+        <v>763.5590522344424</v>
       </c>
       <c r="C13" t="n">
-        <v>642.0958654797676</v>
+        <v>642.0958654797674</v>
       </c>
       <c r="D13" t="n">
-        <v>539.4522222406637</v>
+        <v>539.4522222406636</v>
       </c>
       <c r="E13" t="n">
         <v>439.0121248315024</v>
       </c>
       <c r="F13" t="n">
-        <v>339.5951735068243</v>
+        <v>339.595173506824</v>
       </c>
       <c r="G13" t="n">
         <v>219.3648165111109</v>
       </c>
       <c r="H13" t="n">
-        <v>120.6160333594435</v>
+        <v>120.6160333594436</v>
       </c>
       <c r="I13" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J13" t="n">
         <v>162.3629415743531</v>
@@ -5203,31 +5203,31 @@
         <v>412.8195893489166</v>
       </c>
       <c r="L13" t="n">
-        <v>775.8324036310423</v>
+        <v>775.8324036310421</v>
       </c>
       <c r="M13" t="n">
-        <v>1166.438373527025</v>
+        <v>1166.438373527024</v>
       </c>
       <c r="N13" t="n">
         <v>1554.297561514981</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.083885806685</v>
+        <v>1900.083885806684</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.158439406312</v>
+        <v>2179.158439406311</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.254626364551</v>
+        <v>2303.25462636455</v>
       </c>
       <c r="R13" t="n">
-        <v>2260.873939613842</v>
+        <v>2260.873939613841</v>
       </c>
       <c r="S13" t="n">
-        <v>2116.652049666594</v>
+        <v>2116.652049666593</v>
       </c>
       <c r="T13" t="n">
-        <v>1942.356223359152</v>
+        <v>1942.356223359151</v>
       </c>
       <c r="U13" t="n">
         <v>1700.726324482918</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1772.458812243641</v>
+        <v>1513.30815351403</v>
       </c>
       <c r="C14" t="n">
-        <v>1450.969291476461</v>
+        <v>1191.81863274685</v>
       </c>
       <c r="D14" t="n">
-        <v>1140.176589042943</v>
+        <v>881.0259303133313</v>
       </c>
       <c r="E14" t="n">
-        <v>801.8613326179305</v>
+        <v>542.710673888319</v>
       </c>
       <c r="F14" t="n">
         <v>438.348424001555</v>
       </c>
       <c r="G14" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="I14" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J14" t="n">
-        <v>403.3835631077305</v>
+        <v>259.5311583952872</v>
       </c>
       <c r="K14" t="n">
-        <v>737.0593708628338</v>
+        <v>593.2069661503905</v>
       </c>
       <c r="L14" t="n">
-        <v>1187.915477874225</v>
+        <v>1044.063073161782</v>
       </c>
       <c r="M14" t="n">
-        <v>1721.24920504007</v>
+        <v>1577.396800327627</v>
       </c>
       <c r="N14" t="n">
-        <v>2267.826637873537</v>
+        <v>2123.974233161093</v>
       </c>
       <c r="O14" t="n">
-        <v>2770.608947339492</v>
+        <v>2626.756542627048</v>
       </c>
       <c r="P14" t="n">
-        <v>3165.221015329888</v>
+        <v>3230.280271004143</v>
       </c>
       <c r="Q14" t="n">
-        <v>3413.385497771199</v>
+        <v>3478.444753445453</v>
       </c>
       <c r="R14" t="n">
-        <v>3537.390923714619</v>
+        <v>3537.39092371462</v>
       </c>
       <c r="S14" t="n">
-        <v>3474.54701057207</v>
+        <v>3474.547010572072</v>
       </c>
       <c r="T14" t="n">
-        <v>3316.037218239137</v>
+        <v>3316.037218239139</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.979645562566</v>
+        <v>3109.979645562568</v>
       </c>
       <c r="V14" t="n">
-        <v>3085.540413121841</v>
+        <v>2826.389754392229</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.244754024959</v>
+        <v>2521.094095295347</v>
       </c>
       <c r="X14" t="n">
-        <v>2454.251991937111</v>
+        <v>2195.101333207499</v>
       </c>
       <c r="Y14" t="n">
-        <v>2111.585656134531</v>
+        <v>1852.434997404919</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>944.9781249283828</v>
+        <v>944.7955173426426</v>
       </c>
       <c r="C15" t="n">
-        <v>770.5250956472559</v>
+        <v>770.3424880615156</v>
       </c>
       <c r="D15" t="n">
-        <v>621.5906859860046</v>
+        <v>621.4080784002643</v>
       </c>
       <c r="E15" t="n">
-        <v>462.3532309805491</v>
+        <v>462.1706233948088</v>
       </c>
       <c r="F15" t="n">
-        <v>315.8186730074341</v>
+        <v>315.6360654216938</v>
       </c>
       <c r="G15" t="n">
-        <v>179.4549567088963</v>
+        <v>179.2723491231561</v>
       </c>
       <c r="H15" t="n">
-        <v>88.94711181691652</v>
+        <v>88.76450423117628</v>
       </c>
       <c r="I15" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J15" t="n">
         <v>164.3680354788929</v>
@@ -5379,28 +5379,28 @@
         <v>2568.357427914993</v>
       </c>
       <c r="R15" t="n">
-        <v>2568.357427914993</v>
+        <v>2568.174820329253</v>
       </c>
       <c r="S15" t="n">
-        <v>2438.908097042486</v>
+        <v>2438.725489456746</v>
       </c>
       <c r="T15" t="n">
-        <v>2246.262613279411</v>
+        <v>2246.080005693671</v>
       </c>
       <c r="U15" t="n">
-        <v>2018.194725878882</v>
+        <v>2018.012118293142</v>
       </c>
       <c r="V15" t="n">
-        <v>1783.042617647139</v>
+        <v>1782.860010061399</v>
       </c>
       <c r="W15" t="n">
-        <v>1528.805260918938</v>
+        <v>1528.622653333197</v>
       </c>
       <c r="X15" t="n">
-        <v>1320.953760713405</v>
+        <v>1320.771153127665</v>
       </c>
       <c r="Y15" t="n">
-        <v>1113.193461948451</v>
+        <v>1113.010854362711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.5590522344428</v>
+        <v>763.559052234443</v>
       </c>
       <c r="C16" t="n">
-        <v>642.0958654797678</v>
+        <v>642.095865479768</v>
       </c>
       <c r="D16" t="n">
-        <v>539.4522222406639</v>
+        <v>539.4522222406642</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0121248315027</v>
+        <v>439.0121248315031</v>
       </c>
       <c r="F16" t="n">
-        <v>339.5951735068242</v>
+        <v>339.5951735068247</v>
       </c>
       <c r="G16" t="n">
-        <v>219.3648165111112</v>
+        <v>219.3648165111117</v>
       </c>
       <c r="H16" t="n">
-        <v>120.6160333594438</v>
+        <v>120.6160333594435</v>
       </c>
       <c r="I16" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J16" t="n">
-        <v>162.3629415743532</v>
+        <v>162.3629415743527</v>
       </c>
       <c r="K16" t="n">
-        <v>412.8195893489167</v>
+        <v>412.8195893489162</v>
       </c>
       <c r="L16" t="n">
-        <v>775.8324036310424</v>
+        <v>775.832403631042</v>
       </c>
       <c r="M16" t="n">
-        <v>1166.438373527025</v>
+        <v>1166.438373527024</v>
       </c>
       <c r="N16" t="n">
         <v>1554.297561514981</v>
       </c>
       <c r="O16" t="n">
-        <v>1900.083885806685</v>
+        <v>1900.083885806684</v>
       </c>
       <c r="P16" t="n">
         <v>2179.158439406311</v>
@@ -5458,10 +5458,10 @@
         <v>2303.25462636455</v>
       </c>
       <c r="R16" t="n">
-        <v>2260.873939613842</v>
+        <v>2260.873939613841</v>
       </c>
       <c r="S16" t="n">
-        <v>2116.652049666594</v>
+        <v>2116.652049666593</v>
       </c>
       <c r="T16" t="n">
         <v>1942.356223359151</v>
@@ -5479,7 +5479,7 @@
         <v>1071.054103861749</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.7345208914505</v>
+        <v>897.7345208914508</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1772.458812243641</v>
+        <v>1513.308153514029</v>
       </c>
       <c r="C17" t="n">
         <v>1450.969291476461</v>
@@ -5498,67 +5498,67 @@
         <v>1140.176589042943</v>
       </c>
       <c r="E17" t="n">
-        <v>801.8613326179305</v>
+        <v>801.8613326179307</v>
       </c>
       <c r="F17" t="n">
         <v>438.348424001555</v>
       </c>
       <c r="G17" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="H17" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="I17" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J17" t="n">
-        <v>426.9368074156401</v>
+        <v>259.5311583952872</v>
       </c>
       <c r="K17" t="n">
-        <v>760.6126151707435</v>
+        <v>593.2069661503905</v>
       </c>
       <c r="L17" t="n">
-        <v>1211.468722182135</v>
+        <v>1044.063073161782</v>
       </c>
       <c r="M17" t="n">
-        <v>1744.80244934798</v>
+        <v>1577.396800327627</v>
       </c>
       <c r="N17" t="n">
-        <v>2291.379882181446</v>
+        <v>2123.974233161093</v>
       </c>
       <c r="O17" t="n">
-        <v>2794.162191647401</v>
+        <v>2835.668203013746</v>
       </c>
       <c r="P17" t="n">
-        <v>3188.774259637798</v>
+        <v>3230.280271004143</v>
       </c>
       <c r="Q17" t="n">
-        <v>3436.938742079109</v>
+        <v>3478.444753445453</v>
       </c>
       <c r="R17" t="n">
-        <v>3537.390923714619</v>
+        <v>3537.39092371462</v>
       </c>
       <c r="S17" t="n">
-        <v>3537.390923714619</v>
+        <v>3474.547010572072</v>
       </c>
       <c r="T17" t="n">
-        <v>3537.390923714619</v>
+        <v>3316.037218239139</v>
       </c>
       <c r="U17" t="n">
-        <v>3331.333351038048</v>
+        <v>3109.979645562568</v>
       </c>
       <c r="V17" t="n">
-        <v>3085.540413121841</v>
+        <v>2826.389754392229</v>
       </c>
       <c r="W17" t="n">
-        <v>2780.244754024959</v>
+        <v>2521.094095295347</v>
       </c>
       <c r="X17" t="n">
-        <v>2454.251991937111</v>
+        <v>2195.101333207499</v>
       </c>
       <c r="Y17" t="n">
-        <v>2111.585656134531</v>
+        <v>1852.434997404919</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>944.9781249283828</v>
+        <v>944.7955173426426</v>
       </c>
       <c r="C18" t="n">
-        <v>770.5250956472559</v>
+        <v>770.3424880615156</v>
       </c>
       <c r="D18" t="n">
-        <v>621.5906859860046</v>
+        <v>621.4080784002643</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3532309805491</v>
+        <v>462.1706233948088</v>
       </c>
       <c r="F18" t="n">
-        <v>315.8186730074341</v>
+        <v>315.6360654216938</v>
       </c>
       <c r="G18" t="n">
-        <v>179.4549567088963</v>
+        <v>179.2723491231561</v>
       </c>
       <c r="H18" t="n">
-        <v>88.94711181691652</v>
+        <v>88.76450423117628</v>
       </c>
       <c r="I18" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J18" t="n">
         <v>164.3680354788929</v>
@@ -5616,28 +5616,28 @@
         <v>2568.357427914993</v>
       </c>
       <c r="R18" t="n">
-        <v>2568.357427914993</v>
+        <v>2568.174820329253</v>
       </c>
       <c r="S18" t="n">
-        <v>2438.908097042486</v>
+        <v>2438.725489456746</v>
       </c>
       <c r="T18" t="n">
-        <v>2246.262613279411</v>
+        <v>2246.080005693671</v>
       </c>
       <c r="U18" t="n">
-        <v>2018.194725878882</v>
+        <v>2018.012118293142</v>
       </c>
       <c r="V18" t="n">
-        <v>1783.042617647139</v>
+        <v>1782.860010061399</v>
       </c>
       <c r="W18" t="n">
-        <v>1528.805260918938</v>
+        <v>1528.622653333197</v>
       </c>
       <c r="X18" t="n">
-        <v>1320.953760713405</v>
+        <v>1320.771153127665</v>
       </c>
       <c r="Y18" t="n">
-        <v>1113.193461948451</v>
+        <v>1113.010854362711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.5590522344423</v>
+        <v>763.559052234443</v>
       </c>
       <c r="C19" t="n">
-        <v>642.0958654797673</v>
+        <v>642.095865479768</v>
       </c>
       <c r="D19" t="n">
-        <v>539.4522222406636</v>
+        <v>539.4522222406641</v>
       </c>
       <c r="E19" t="n">
         <v>439.0121248315023</v>
@@ -5668,31 +5668,31 @@
         <v>120.6160333594435</v>
       </c>
       <c r="I19" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J19" t="n">
         <v>162.3629415743531</v>
       </c>
       <c r="K19" t="n">
-        <v>412.8195893489157</v>
+        <v>412.8195893489166</v>
       </c>
       <c r="L19" t="n">
-        <v>775.8324036310414</v>
+        <v>775.8324036310423</v>
       </c>
       <c r="M19" t="n">
-        <v>1166.438373527024</v>
+        <v>1166.438373527025</v>
       </c>
       <c r="N19" t="n">
-        <v>1554.29756151498</v>
+        <v>1554.297561514981</v>
       </c>
       <c r="O19" t="n">
-        <v>1900.083885806684</v>
+        <v>1900.083885806685</v>
       </c>
       <c r="P19" t="n">
-        <v>2179.15843940631</v>
+        <v>2179.158439406311</v>
       </c>
       <c r="Q19" t="n">
-        <v>2303.254626364549</v>
+        <v>2303.25462636455</v>
       </c>
       <c r="R19" t="n">
         <v>2260.873939613841</v>
@@ -5704,19 +5704,19 @@
         <v>1942.356223359151</v>
       </c>
       <c r="U19" t="n">
-        <v>1700.726324482917</v>
+        <v>1700.726324482918</v>
       </c>
       <c r="V19" t="n">
-        <v>1493.514832450262</v>
+        <v>1493.514832450263</v>
       </c>
       <c r="W19" t="n">
         <v>1251.570658586534</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.054103861748</v>
+        <v>1071.054103861749</v>
       </c>
       <c r="Y19" t="n">
-        <v>897.7345208914501</v>
+        <v>897.7345208914508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022.581209726902</v>
+        <v>1839.300915601877</v>
       </c>
       <c r="C20" t="n">
-        <v>1701.091688959722</v>
+        <v>1517.811394834697</v>
       </c>
       <c r="D20" t="n">
-        <v>1390.298986526204</v>
+        <v>1207.018692401179</v>
       </c>
       <c r="E20" t="n">
-        <v>1051.983730101191</v>
+        <v>868.7034359761665</v>
       </c>
       <c r="F20" t="n">
-        <v>688.4708214848158</v>
+        <v>505.1905273597908</v>
       </c>
       <c r="G20" t="n">
-        <v>320.8702159575527</v>
+        <v>320.8702159575528</v>
       </c>
       <c r="H20" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="I20" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J20" t="n">
-        <v>403.3835631077305</v>
+        <v>259.5311583952872</v>
       </c>
       <c r="K20" t="n">
-        <v>737.0593708628338</v>
+        <v>737.0593708628356</v>
       </c>
       <c r="L20" t="n">
-        <v>1187.915477874225</v>
+        <v>1187.915477874227</v>
       </c>
       <c r="M20" t="n">
-        <v>1721.24920504007</v>
+        <v>1721.249205040072</v>
       </c>
       <c r="N20" t="n">
-        <v>2267.826637873537</v>
+        <v>2267.826637873538</v>
       </c>
       <c r="O20" t="n">
-        <v>2770.608947339492</v>
+        <v>2770.608947339494</v>
       </c>
       <c r="P20" t="n">
-        <v>3165.221015329888</v>
+        <v>3165.22101532989</v>
       </c>
       <c r="Q20" t="n">
-        <v>3413.385497771199</v>
+        <v>3413.385497771201</v>
       </c>
       <c r="R20" t="n">
-        <v>3537.390923714619</v>
+        <v>3537.39092371462</v>
       </c>
       <c r="S20" t="n">
-        <v>3537.390923714619</v>
+        <v>3474.547010572072</v>
       </c>
       <c r="T20" t="n">
-        <v>3499.317512364164</v>
+        <v>3316.037218239139</v>
       </c>
       <c r="U20" t="n">
-        <v>3293.259939687593</v>
+        <v>3109.979645562568</v>
       </c>
       <c r="V20" t="n">
-        <v>3009.670048517254</v>
+        <v>2826.389754392229</v>
       </c>
       <c r="W20" t="n">
-        <v>2704.374389420372</v>
+        <v>2521.094095295347</v>
       </c>
       <c r="X20" t="n">
-        <v>2704.374389420372</v>
+        <v>2521.094095295347</v>
       </c>
       <c r="Y20" t="n">
-        <v>2361.708053617792</v>
+        <v>2178.427759492767</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>944.9781249283828</v>
+        <v>944.7955173426426</v>
       </c>
       <c r="C21" t="n">
-        <v>770.5250956472559</v>
+        <v>770.3424880615156</v>
       </c>
       <c r="D21" t="n">
-        <v>621.5906859860046</v>
+        <v>621.4080784002643</v>
       </c>
       <c r="E21" t="n">
-        <v>462.3532309805491</v>
+        <v>462.1706233948088</v>
       </c>
       <c r="F21" t="n">
-        <v>315.8186730074341</v>
+        <v>315.6360654216938</v>
       </c>
       <c r="G21" t="n">
-        <v>179.4549567088963</v>
+        <v>179.2723491231561</v>
       </c>
       <c r="H21" t="n">
-        <v>88.94711181691652</v>
+        <v>88.76450423117628</v>
       </c>
       <c r="I21" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J21" t="n">
         <v>164.3680354788929</v>
@@ -5853,28 +5853,28 @@
         <v>2568.357427914993</v>
       </c>
       <c r="R21" t="n">
-        <v>2568.357427914993</v>
+        <v>2568.174820329253</v>
       </c>
       <c r="S21" t="n">
-        <v>2438.908097042486</v>
+        <v>2438.725489456746</v>
       </c>
       <c r="T21" t="n">
-        <v>2246.262613279411</v>
+        <v>2246.080005693671</v>
       </c>
       <c r="U21" t="n">
-        <v>2018.194725878882</v>
+        <v>2018.012118293142</v>
       </c>
       <c r="V21" t="n">
-        <v>1783.042617647139</v>
+        <v>1782.860010061399</v>
       </c>
       <c r="W21" t="n">
-        <v>1528.805260918938</v>
+        <v>1528.622653333197</v>
       </c>
       <c r="X21" t="n">
-        <v>1320.953760713405</v>
+        <v>1320.771153127665</v>
       </c>
       <c r="Y21" t="n">
-        <v>1113.193461948451</v>
+        <v>1113.010854362711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.5590522344423</v>
+        <v>763.5590522344426</v>
       </c>
       <c r="C22" t="n">
-        <v>642.0958654797673</v>
+        <v>642.0958654797676</v>
       </c>
       <c r="D22" t="n">
-        <v>539.4522222406634</v>
+        <v>539.4522222406637</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0121248315023</v>
+        <v>439.0121248315025</v>
       </c>
       <c r="F22" t="n">
-        <v>339.5951735068238</v>
+        <v>339.595173506824</v>
       </c>
       <c r="G22" t="n">
         <v>219.3648165111108</v>
@@ -5905,19 +5905,19 @@
         <v>120.6160333594435</v>
       </c>
       <c r="I22" t="n">
-        <v>70.74781847429237</v>
+        <v>70.74781847429242</v>
       </c>
       <c r="J22" t="n">
-        <v>162.3629415743531</v>
+        <v>162.3629415743532</v>
       </c>
       <c r="K22" t="n">
-        <v>412.8195893489165</v>
+        <v>412.8195893489166</v>
       </c>
       <c r="L22" t="n">
-        <v>775.8324036310422</v>
+        <v>775.8324036310423</v>
       </c>
       <c r="M22" t="n">
-        <v>1166.438373527024</v>
+        <v>1166.438373527025</v>
       </c>
       <c r="N22" t="n">
         <v>1554.297561514981</v>
@@ -5926,7 +5926,7 @@
         <v>1900.083885806685</v>
       </c>
       <c r="P22" t="n">
-        <v>2179.158439406311</v>
+        <v>2179.158439406312</v>
       </c>
       <c r="Q22" t="n">
         <v>2303.25462636455</v>
@@ -5953,7 +5953,7 @@
         <v>1071.054103861748</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.7345208914501</v>
+        <v>897.7345208914503</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1711.485016637536</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.692314204017</v>
+        <v>1400.692314204018</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.377057779005</v>
+        <v>1062.377057779006</v>
       </c>
       <c r="F23" t="n">
-        <v>698.8641491626295</v>
+        <v>698.8641491626302</v>
       </c>
       <c r="G23" t="n">
         <v>331.2635436353665</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210616</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210616</v>
       </c>
       <c r="J23" t="n">
-        <v>394.2773851553453</v>
+        <v>269.9244860731009</v>
       </c>
       <c r="K23" t="n">
-        <v>727.9531929104486</v>
+        <v>727.9531929104495</v>
       </c>
       <c r="L23" t="n">
-        <v>1178.80929992184</v>
+        <v>1178.809299921841</v>
       </c>
       <c r="M23" t="n">
-        <v>1712.143027087685</v>
+        <v>1712.143027087686</v>
       </c>
       <c r="N23" t="n">
-        <v>2258.720459921151</v>
+        <v>2258.720459921152</v>
       </c>
       <c r="O23" t="n">
         <v>2761.502769387107</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.695558467271</v>
+        <v>3474.695558467272</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.051881661887</v>
+        <v>3933.051881661888</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.057307605307</v>
+        <v>4057.057307605308</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.213394462758</v>
+        <v>3994.213394462759</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.703602129825</v>
+        <v>3835.703602129827</v>
       </c>
       <c r="U23" t="n">
         <v>3629.646029453255</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>955.3714526061963</v>
+        <v>955.188845020456</v>
       </c>
       <c r="C24" t="n">
-        <v>780.9184233250693</v>
+        <v>780.735815739329</v>
       </c>
       <c r="D24" t="n">
-        <v>631.984013663818</v>
+        <v>631.8014060780778</v>
       </c>
       <c r="E24" t="n">
-        <v>472.7465586583625</v>
+        <v>472.5639510726223</v>
       </c>
       <c r="F24" t="n">
-        <v>326.2120006852475</v>
+        <v>326.0293930995073</v>
       </c>
       <c r="G24" t="n">
-        <v>189.8482843867098</v>
+        <v>189.6656768009695</v>
       </c>
       <c r="H24" t="n">
-        <v>99.34043949472995</v>
+        <v>99.15783190898971</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210616</v>
       </c>
       <c r="J24" t="n">
         <v>174.7613631567067</v>
@@ -6090,28 +6090,28 @@
         <v>2578.750755592806</v>
       </c>
       <c r="R24" t="n">
-        <v>2578.750755592806</v>
+        <v>2578.568148007066</v>
       </c>
       <c r="S24" t="n">
-        <v>2449.3014247203</v>
+        <v>2449.118817134559</v>
       </c>
       <c r="T24" t="n">
-        <v>2256.655940957224</v>
+        <v>2256.473333371484</v>
       </c>
       <c r="U24" t="n">
-        <v>2028.588053556695</v>
+        <v>2028.405445970955</v>
       </c>
       <c r="V24" t="n">
-        <v>1793.435945324953</v>
+        <v>1793.253337739212</v>
       </c>
       <c r="W24" t="n">
-        <v>1539.198588596751</v>
+        <v>1539.015981011011</v>
       </c>
       <c r="X24" t="n">
-        <v>1331.347088391218</v>
+        <v>1331.164480805478</v>
       </c>
       <c r="Y24" t="n">
-        <v>1123.586789626264</v>
+        <v>1123.404182040524</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>773.9523799122562</v>
+        <v>773.9523799122569</v>
       </c>
       <c r="C25" t="n">
-        <v>652.4891931575812</v>
+        <v>652.4891931575819</v>
       </c>
       <c r="D25" t="n">
-        <v>549.8455499184773</v>
+        <v>549.845549918478</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4054525093161</v>
+        <v>449.4054525093168</v>
       </c>
       <c r="F25" t="n">
-        <v>349.9885011846376</v>
+        <v>349.9885011846384</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7581441889246</v>
+        <v>229.7581441889254</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0093610372572</v>
+        <v>131.0093610372579</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210616</v>
       </c>
       <c r="J25" t="n">
         <v>172.7562692521669</v>
@@ -6151,7 +6151,7 @@
         <v>423.2129170267303</v>
       </c>
       <c r="L25" t="n">
-        <v>786.225731308856</v>
+        <v>786.2257313088558</v>
       </c>
       <c r="M25" t="n">
         <v>1176.831701204838</v>
@@ -6169,28 +6169,28 @@
         <v>2313.647954042364</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.267267291655</v>
+        <v>2271.267267291656</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.045377344407</v>
+        <v>2127.045377344408</v>
       </c>
       <c r="T25" t="n">
-        <v>1952.749551036965</v>
+        <v>1952.749551036966</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.119652160731</v>
+        <v>1711.119652160732</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.908160128076</v>
+        <v>1503.908160128077</v>
       </c>
       <c r="W25" t="n">
         <v>1261.963986264348</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.447431539562</v>
+        <v>1081.447431539563</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.127848569264</v>
+        <v>908.1278485692646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.275506940614</v>
+        <v>2374.275506940615</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.312990000202</v>
+        <v>2005.312990000203</v>
       </c>
       <c r="D26" t="n">
         <v>1647.047291393452</v>
@@ -6212,10 +6212,10 @@
         <v>1261.259038795208</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2731340056</v>
+        <v>850.2731340056005</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1995323051055</v>
+        <v>435.199532305106</v>
       </c>
       <c r="H26" t="n">
         <v>137.6041386486132</v>
@@ -6230,22 +6230,22 @@
         <v>1106.331600072445</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.187707083837</v>
+        <v>1615.734203035151</v>
       </c>
       <c r="M26" t="n">
-        <v>2090.521434249682</v>
+        <v>2594.0863283589</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.098867083148</v>
+        <v>3573.63721636023</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.587708308859</v>
+        <v>4076.419525826186</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.780497389023</v>
+        <v>4471.031593816582</v>
       </c>
       <c r="Q26" t="n">
-        <v>4654.13682058364</v>
+        <v>4719.196076257893</v>
       </c>
       <c r="R26" t="n">
         <v>4778.14224652706</v>
@@ -6263,7 +6263,7 @@
         <v>3877.249092511742</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.480437241627</v>
+        <v>3524.480437241628</v>
       </c>
       <c r="X26" t="n">
         <v>3151.014678980548</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>969.7931513846315</v>
+        <v>969.6105437988913</v>
       </c>
       <c r="C27" t="n">
-        <v>795.3401221035045</v>
+        <v>795.1575145177643</v>
       </c>
       <c r="D27" t="n">
-        <v>646.4057124422533</v>
+        <v>646.223104856513</v>
       </c>
       <c r="E27" t="n">
-        <v>487.1682574367978</v>
+        <v>486.9856498510575</v>
       </c>
       <c r="F27" t="n">
-        <v>340.6336994636828</v>
+        <v>340.4510918779425</v>
       </c>
       <c r="G27" t="n">
-        <v>204.269983165145</v>
+        <v>204.0873755794048</v>
       </c>
       <c r="H27" t="n">
-        <v>113.7621382731652</v>
+        <v>113.579530687425</v>
       </c>
       <c r="I27" t="n">
         <v>95.5628449305412</v>
@@ -6327,28 +6327,28 @@
         <v>2593.172454371242</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.172454371242</v>
+        <v>2592.989846785501</v>
       </c>
       <c r="S27" t="n">
-        <v>2463.723123498735</v>
+        <v>2463.540515912995</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.077639735659</v>
+        <v>2270.895032149919</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.009752335131</v>
+        <v>2042.82714474939</v>
       </c>
       <c r="V27" t="n">
-        <v>1807.857644103388</v>
+        <v>1807.675036517648</v>
       </c>
       <c r="W27" t="n">
-        <v>1553.620287375186</v>
+        <v>1553.437679789446</v>
       </c>
       <c r="X27" t="n">
-        <v>1345.768787169653</v>
+        <v>1345.586179583913</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.0084884047</v>
+        <v>1137.825880818959</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.2082362616234</v>
+        <v>412.4121214408408</v>
       </c>
       <c r="C28" t="n">
-        <v>323.2720533337168</v>
+        <v>243.4759385129343</v>
       </c>
       <c r="D28" t="n">
-        <v>323.2720533337168</v>
+        <v>243.4759385129343</v>
       </c>
       <c r="E28" t="n">
-        <v>323.2720533337168</v>
+        <v>95.5628449305412</v>
       </c>
       <c r="F28" t="n">
-        <v>323.2720533337168</v>
+        <v>95.5628449305412</v>
       </c>
       <c r="G28" t="n">
-        <v>155.5687001647719</v>
+        <v>95.5628449305412</v>
       </c>
       <c r="H28" t="n">
         <v>95.5628449305412</v>
@@ -6382,13 +6382,13 @@
         <v>95.5628449305412</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6496844812173</v>
+        <v>140.6496844812174</v>
       </c>
       <c r="K28" t="n">
-        <v>344.5780487063961</v>
+        <v>344.5780487063963</v>
       </c>
       <c r="L28" t="n">
-        <v>661.0625794391374</v>
+        <v>661.0625794391375</v>
       </c>
       <c r="M28" t="n">
         <v>1005.140265785735</v>
@@ -6400,34 +6400,34 @@
         <v>1645.729210966626</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.275481016868</v>
+        <v>1878.275481016869</v>
       </c>
       <c r="Q28" t="n">
         <v>1955.843384425723</v>
       </c>
       <c r="R28" t="n">
-        <v>1955.843384425723</v>
+        <v>1865.989701501783</v>
       </c>
       <c r="S28" t="n">
-        <v>1955.843384425723</v>
+        <v>1674.294815381303</v>
       </c>
       <c r="T28" t="n">
-        <v>1955.843384425723</v>
+        <v>1452.525992900629</v>
       </c>
       <c r="U28" t="n">
-        <v>1666.740489376258</v>
+        <v>1163.423097851163</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.056001170371</v>
+        <v>908.7386096452766</v>
       </c>
       <c r="W28" t="n">
-        <v>1122.63883113341</v>
+        <v>861.1942514823883</v>
       </c>
       <c r="X28" t="n">
-        <v>894.649280235393</v>
+        <v>633.2047005843709</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.8567010918631</v>
+        <v>412.4121214408408</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.259038795208</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2731340056</v>
+        <v>850.2731340056007</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1995323051055</v>
+        <v>435.199532305106</v>
       </c>
       <c r="H29" t="n">
-        <v>137.6041386486133</v>
+        <v>137.604138648614</v>
       </c>
       <c r="I29" t="n">
-        <v>95.5628449305412</v>
+        <v>95.56284493054122</v>
       </c>
       <c r="J29" t="n">
         <v>284.346184851536</v>
       </c>
       <c r="K29" t="n">
-        <v>618.0219926066393</v>
+        <v>938.9259510520924</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.362702022977</v>
+        <v>1803.26666046843</v>
       </c>
       <c r="M29" t="n">
-        <v>2460.714827346726</v>
+        <v>2781.618785792179</v>
       </c>
       <c r="N29" t="n">
-        <v>3440.265715348057</v>
+        <v>3328.196218625645</v>
       </c>
       <c r="O29" t="n">
-        <v>4076.419525826186</v>
+        <v>3830.9785280916</v>
       </c>
       <c r="P29" t="n">
-        <v>4471.031593816582</v>
+        <v>4260.839753063277</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.196076257893</v>
+        <v>4719.196076257894</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.14224652706</v>
+        <v>4778.142246527061</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.825337211279</v>
+        <v>4667.82533721128</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.842548705114</v>
+        <v>4461.842548705115</v>
       </c>
       <c r="U29" t="n">
         <v>4208.311979855313</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>969.7931513846315</v>
+        <v>969.6105437988913</v>
       </c>
       <c r="C30" t="n">
-        <v>795.3401221035045</v>
+        <v>795.1575145177643</v>
       </c>
       <c r="D30" t="n">
-        <v>646.4057124422533</v>
+        <v>646.223104856513</v>
       </c>
       <c r="E30" t="n">
-        <v>487.1682574367978</v>
+        <v>486.9856498510575</v>
       </c>
       <c r="F30" t="n">
-        <v>340.6336994636828</v>
+        <v>340.4510918779425</v>
       </c>
       <c r="G30" t="n">
-        <v>204.269983165145</v>
+        <v>204.0873755794048</v>
       </c>
       <c r="H30" t="n">
-        <v>113.7621382731652</v>
+        <v>113.579530687425</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5628449305412</v>
+        <v>95.56284493054122</v>
       </c>
       <c r="J30" t="n">
-        <v>189.1830619351417</v>
+        <v>189.1830619351418</v>
       </c>
       <c r="K30" t="n">
         <v>427.3497491296999</v>
       </c>
       <c r="L30" t="n">
-        <v>793.9167928126701</v>
+        <v>793.9167928126702</v>
       </c>
       <c r="M30" t="n">
         <v>1241.040111112504</v>
@@ -6564,28 +6564,28 @@
         <v>2593.172454371242</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.172454371242</v>
+        <v>2592.989846785501</v>
       </c>
       <c r="S30" t="n">
-        <v>2463.723123498735</v>
+        <v>2463.540515912995</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.077639735659</v>
+        <v>2270.895032149919</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.009752335131</v>
+        <v>2042.82714474939</v>
       </c>
       <c r="V30" t="n">
-        <v>1807.857644103388</v>
+        <v>1807.675036517648</v>
       </c>
       <c r="W30" t="n">
-        <v>1553.620287375186</v>
+        <v>1553.437679789446</v>
       </c>
       <c r="X30" t="n">
-        <v>1345.768787169653</v>
+        <v>1345.586179583913</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.0084884047</v>
+        <v>1137.825880818959</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>911.9490809527819</v>
+        <v>431.4522463607324</v>
       </c>
       <c r="C31" t="n">
-        <v>743.012898024875</v>
+        <v>431.4522463607324</v>
       </c>
       <c r="D31" t="n">
-        <v>592.8962586125392</v>
+        <v>340.8171495713174</v>
       </c>
       <c r="E31" t="n">
-        <v>444.9831650301461</v>
+        <v>192.9040559889243</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4879774243853</v>
+        <v>192.9040559889243</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7846242554405</v>
+        <v>192.9040559889243</v>
       </c>
       <c r="H31" t="n">
-        <v>95.5628449305412</v>
+        <v>192.9040559889243</v>
       </c>
       <c r="I31" t="n">
-        <v>95.5628449305412</v>
+        <v>95.56284493054122</v>
       </c>
       <c r="J31" t="n">
         <v>140.6496844812173</v>
       </c>
       <c r="K31" t="n">
-        <v>344.578048706396</v>
+        <v>344.5780487063962</v>
       </c>
       <c r="L31" t="n">
-        <v>661.0625794391372</v>
+        <v>661.0625794391374</v>
       </c>
       <c r="M31" t="n">
         <v>1005.140265785735</v>
@@ -6643,28 +6643,28 @@
         <v>1955.843384425723</v>
       </c>
       <c r="R31" t="n">
-        <v>1955.843384425723</v>
+        <v>1865.989701501782</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.148498305243</v>
+        <v>1674.294815381302</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.379675824569</v>
+        <v>1674.294815381302</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.379675824569</v>
+        <v>1385.191920331837</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.379675824569</v>
+        <v>1130.50743212595</v>
       </c>
       <c r="W31" t="n">
-        <v>1542.379675824569</v>
+        <v>841.0902620889894</v>
       </c>
       <c r="X31" t="n">
-        <v>1314.390124926552</v>
+        <v>613.1007111909721</v>
       </c>
       <c r="Y31" t="n">
-        <v>1093.597545783022</v>
+        <v>613.1007111909721</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2358.18614344789</v>
+        <v>2358.186143447891</v>
       </c>
       <c r="C32" t="n">
         <v>1991.4258019576</v>
@@ -6686,58 +6686,58 @@
         <v>1251.776201652848</v>
       </c>
       <c r="F32" t="n">
-        <v>842.992472313362</v>
+        <v>842.9924723133621</v>
       </c>
       <c r="G32" t="n">
-        <v>430.1210460629891</v>
+        <v>430.1210460629889</v>
       </c>
       <c r="H32" t="n">
-        <v>134.7278278566178</v>
+        <v>134.7278278566179</v>
       </c>
       <c r="I32" t="n">
-        <v>94.88870958866728</v>
+        <v>94.88870958866731</v>
       </c>
       <c r="J32" t="n">
-        <v>451.077698530015</v>
+        <v>283.672049509662</v>
       </c>
       <c r="K32" t="n">
-        <v>1105.657464730572</v>
+        <v>617.3478572647654</v>
       </c>
       <c r="L32" t="n">
-        <v>1556.513571741963</v>
+        <v>1068.203964276157</v>
       </c>
       <c r="M32" t="n">
-        <v>2089.847298907808</v>
+        <v>2046.556089599906</v>
       </c>
       <c r="N32" t="n">
-        <v>2636.424731741275</v>
+        <v>2946.09863174921</v>
       </c>
       <c r="O32" t="n">
-        <v>3448.880941215163</v>
+        <v>3448.880941215165</v>
       </c>
       <c r="P32" t="n">
-        <v>4162.073730295328</v>
+        <v>4162.073730295329</v>
       </c>
       <c r="Q32" t="n">
-        <v>4620.430053489944</v>
+        <v>4620.430053489946</v>
       </c>
       <c r="R32" t="n">
-        <v>4744.435479433364</v>
+        <v>4744.435479433366</v>
       </c>
       <c r="S32" t="n">
-        <v>4636.320745567705</v>
+        <v>4636.320745567707</v>
       </c>
       <c r="T32" t="n">
-        <v>4432.540132511662</v>
+        <v>4432.540132511664</v>
       </c>
       <c r="U32" t="n">
-        <v>4181.211739111981</v>
+        <v>4181.211739111982</v>
       </c>
       <c r="V32" t="n">
-        <v>3852.351027218532</v>
+        <v>3852.351027218533</v>
       </c>
       <c r="W32" t="n">
-        <v>3501.784547398539</v>
+        <v>3501.78454739854</v>
       </c>
       <c r="X32" t="n">
         <v>3130.520964587581</v>
@@ -6774,10 +6774,10 @@
         <v>112.9053953455512</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88870958866728</v>
+        <v>94.88870958866731</v>
       </c>
       <c r="J33" t="n">
-        <v>188.5089265932678</v>
+        <v>188.5089265932679</v>
       </c>
       <c r="K33" t="n">
         <v>426.675613787826</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.7493950951788</v>
+        <v>531.7704723449556</v>
       </c>
       <c r="C34" t="n">
-        <v>204.7493950951788</v>
+        <v>365.0364648671701</v>
       </c>
       <c r="D34" t="n">
-        <v>204.7493950951788</v>
+        <v>365.0364648671701</v>
       </c>
       <c r="E34" t="n">
-        <v>204.7493950951788</v>
+        <v>219.3255467348984</v>
       </c>
       <c r="F34" t="n">
-        <v>94.88870958866728</v>
+        <v>219.3255467348984</v>
       </c>
       <c r="G34" t="n">
-        <v>94.88870958866728</v>
+        <v>94.88870958866731</v>
       </c>
       <c r="H34" t="n">
-        <v>94.88870958866728</v>
+        <v>94.88870958866731</v>
       </c>
       <c r="I34" t="n">
-        <v>94.88870958866728</v>
+        <v>94.88870958866731</v>
       </c>
       <c r="J34" t="n">
         <v>142.1339012980075</v>
       </c>
       <c r="K34" t="n">
-        <v>348.2206176818505</v>
+        <v>348.2206176818504</v>
       </c>
       <c r="L34" t="n">
-        <v>666.8635005732557</v>
+        <v>666.8635005732556</v>
       </c>
       <c r="M34" t="n">
-        <v>1013.099539078518</v>
+        <v>1013.099539078517</v>
       </c>
       <c r="N34" t="n">
-        <v>1356.588795675754</v>
+        <v>1356.588795675753</v>
       </c>
       <c r="O34" t="n">
-        <v>1658.005188576737</v>
+        <v>1658.005188576736</v>
       </c>
       <c r="P34" t="n">
-        <v>1892.709810785643</v>
+        <v>1892.709810785642</v>
       </c>
       <c r="Q34" t="n">
-        <v>1972.436066353162</v>
+        <v>1972.436066353161</v>
       </c>
       <c r="R34" t="n">
-        <v>1884.784558879342</v>
+        <v>1884.784558879341</v>
       </c>
       <c r="S34" t="n">
-        <v>1695.291848208984</v>
+        <v>1695.291848208983</v>
       </c>
       <c r="T34" t="n">
-        <v>1475.725201178431</v>
+        <v>1695.291848208983</v>
       </c>
       <c r="U34" t="n">
-        <v>1188.824481579088</v>
+        <v>1695.291848208983</v>
       </c>
       <c r="V34" t="n">
-        <v>936.3421688233223</v>
+        <v>1442.809535453218</v>
       </c>
       <c r="W34" t="n">
-        <v>649.1271742364831</v>
+        <v>1155.594540866379</v>
       </c>
       <c r="X34" t="n">
-        <v>423.3397987885874</v>
+        <v>929.8071654184826</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.7493950951788</v>
+        <v>711.2167617250739</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2032.974537404715</v>
+        <v>2032.974537404716</v>
       </c>
       <c r="C35" t="n">
         <v>1711.485016637536</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.692314204017</v>
+        <v>1400.692314204018</v>
       </c>
       <c r="E35" t="n">
         <v>1062.377057779005</v>
       </c>
       <c r="F35" t="n">
-        <v>698.864149162629</v>
+        <v>698.8641491626295</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2635436353664</v>
+        <v>331.2635436353665</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14114615210613</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14114615210613</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J35" t="n">
         <v>269.9244860731009</v>
@@ -6944,16 +6944,16 @@
         <v>1054.456400839596</v>
       </c>
       <c r="M35" t="n">
-        <v>1587.790128005441</v>
+        <v>1777.202282761938</v>
       </c>
       <c r="N35" t="n">
-        <v>2134.367560838907</v>
+        <v>2323.779715595404</v>
       </c>
       <c r="O35" t="n">
-        <v>3014.14204975498</v>
+        <v>2826.562025061359</v>
       </c>
       <c r="P35" t="n">
-        <v>3727.334838835145</v>
+        <v>3539.754814141524</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.11113733614</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.3714526061963</v>
+        <v>955.188845020456</v>
       </c>
       <c r="C36" t="n">
-        <v>780.9184233250693</v>
+        <v>780.735815739329</v>
       </c>
       <c r="D36" t="n">
-        <v>631.984013663818</v>
+        <v>631.8014060780778</v>
       </c>
       <c r="E36" t="n">
-        <v>472.7465586583625</v>
+        <v>472.5639510726223</v>
       </c>
       <c r="F36" t="n">
-        <v>326.2120006852475</v>
+        <v>326.0293930995073</v>
       </c>
       <c r="G36" t="n">
-        <v>189.8482843867098</v>
+        <v>189.6656768009695</v>
       </c>
       <c r="H36" t="n">
-        <v>99.34043949472995</v>
+        <v>99.15783190898971</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14114615210613</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J36" t="n">
         <v>174.7613631567067</v>
       </c>
       <c r="K36" t="n">
-        <v>412.9280503512648</v>
+        <v>412.9280503512649</v>
       </c>
       <c r="L36" t="n">
         <v>779.4950940342351</v>
@@ -7038,28 +7038,28 @@
         <v>2578.750755592806</v>
       </c>
       <c r="R36" t="n">
-        <v>2578.750755592806</v>
+        <v>2578.568148007066</v>
       </c>
       <c r="S36" t="n">
-        <v>2449.3014247203</v>
+        <v>2449.118817134559</v>
       </c>
       <c r="T36" t="n">
-        <v>2256.655940957224</v>
+        <v>2256.473333371484</v>
       </c>
       <c r="U36" t="n">
-        <v>2028.588053556695</v>
+        <v>2028.405445970955</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.435945324953</v>
+        <v>1793.253337739212</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.198588596751</v>
+        <v>1539.015981011011</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.347088391218</v>
+        <v>1331.164480805478</v>
       </c>
       <c r="Y36" t="n">
-        <v>1123.586789626264</v>
+        <v>1123.404182040524</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>773.9523799122561</v>
+        <v>773.9523799122563</v>
       </c>
       <c r="C37" t="n">
-        <v>652.4891931575811</v>
+        <v>652.4891931575813</v>
       </c>
       <c r="D37" t="n">
-        <v>549.8455499184772</v>
+        <v>549.8455499184774</v>
       </c>
       <c r="E37" t="n">
-        <v>449.405452509316</v>
+        <v>449.4054525093162</v>
       </c>
       <c r="F37" t="n">
-        <v>349.9885011846375</v>
+        <v>349.9885011846377</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7581441889245</v>
+        <v>229.7581441889247</v>
       </c>
       <c r="H37" t="n">
         <v>131.0093610372573</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14114615210613</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7562692521667</v>
+        <v>172.7562692521668</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2129170267303</v>
+        <v>423.2129170267301</v>
       </c>
       <c r="L37" t="n">
-        <v>786.225731308856</v>
+        <v>786.2257313088558</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.831701204839</v>
+        <v>1176.831701204838</v>
       </c>
       <c r="N37" t="n">
         <v>1564.690889192795</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.477213484499</v>
+        <v>1910.477213484498</v>
       </c>
       <c r="P37" t="n">
         <v>2189.551767084125</v>
@@ -7117,10 +7117,10 @@
         <v>2313.647954042364</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.267267291656</v>
+        <v>2271.267267291655</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.045377344408</v>
+        <v>2127.045377344407</v>
       </c>
       <c r="T37" t="n">
         <v>1952.749551036965</v>
@@ -7138,7 +7138,7 @@
         <v>1081.447431539562</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.127848569264</v>
+        <v>908.1278485692642</v>
       </c>
     </row>
     <row r="38">
@@ -7154,58 +7154,58 @@
         <v>1711.485016637536</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.692314204017</v>
+        <v>1400.692314204018</v>
       </c>
       <c r="E38" t="n">
         <v>1062.377057779005</v>
       </c>
       <c r="F38" t="n">
-        <v>698.8641491626294</v>
+        <v>698.8641491626295</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2635436353664</v>
+        <v>331.2635436353665</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14114615210612</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14114615210612</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J38" t="n">
-        <v>269.9244860731008</v>
+        <v>269.9244860731009</v>
       </c>
       <c r="K38" t="n">
-        <v>924.504252273657</v>
+        <v>603.6002938282043</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.360359285049</v>
+        <v>1467.941003244542</v>
       </c>
       <c r="M38" t="n">
-        <v>1908.694086450893</v>
+        <v>2001.274730410387</v>
       </c>
       <c r="N38" t="n">
-        <v>2455.271519284359</v>
+        <v>2547.852163243853</v>
       </c>
       <c r="O38" t="n">
-        <v>2958.053828750315</v>
+        <v>3050.634472709808</v>
       </c>
       <c r="P38" t="n">
-        <v>3671.246617830479</v>
+        <v>3749.946654894829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.111137336139</v>
+        <v>3998.11113733614</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.057307605306</v>
+        <v>4057.057307605307</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.213394462758</v>
+        <v>3994.213394462759</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.703602129825</v>
+        <v>3835.703602129826</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.646029453254</v>
+        <v>3629.646029453255</v>
       </c>
       <c r="V38" t="n">
         <v>3346.056138282916</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.3714526061954</v>
+        <v>955.188845020456</v>
       </c>
       <c r="C39" t="n">
-        <v>780.9184233250684</v>
+        <v>780.735815739329</v>
       </c>
       <c r="D39" t="n">
-        <v>631.9840136638171</v>
+        <v>631.8014060780778</v>
       </c>
       <c r="E39" t="n">
-        <v>472.7465586583616</v>
+        <v>472.5639510726223</v>
       </c>
       <c r="F39" t="n">
-        <v>326.2120006852466</v>
+        <v>326.0293930995073</v>
       </c>
       <c r="G39" t="n">
-        <v>189.8482843867089</v>
+        <v>189.6656768009695</v>
       </c>
       <c r="H39" t="n">
-        <v>99.34043949472903</v>
+        <v>99.15783190898971</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14114615210612</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J39" t="n">
-        <v>174.7613631567066</v>
+        <v>174.7613631567067</v>
       </c>
       <c r="K39" t="n">
-        <v>412.9280503512647</v>
+        <v>412.9280503512649</v>
       </c>
       <c r="L39" t="n">
-        <v>779.4950940342349</v>
+        <v>779.4950940342351</v>
       </c>
       <c r="M39" t="n">
-        <v>1226.618412334068</v>
+        <v>1226.618412334069</v>
       </c>
       <c r="N39" t="n">
         <v>1699.984399328089</v>
@@ -7269,34 +7269,34 @@
         <v>2110.802002676836</v>
       </c>
       <c r="P39" t="n">
-        <v>2421.186281440613</v>
+        <v>2421.186281440614</v>
       </c>
       <c r="Q39" t="n">
-        <v>2578.750755592805</v>
+        <v>2578.750755592806</v>
       </c>
       <c r="R39" t="n">
-        <v>2578.750755592805</v>
+        <v>2578.568148007066</v>
       </c>
       <c r="S39" t="n">
-        <v>2449.301424720299</v>
+        <v>2449.118817134559</v>
       </c>
       <c r="T39" t="n">
-        <v>2256.655940957223</v>
+        <v>2256.473333371484</v>
       </c>
       <c r="U39" t="n">
-        <v>2028.588053556694</v>
+        <v>2028.405445970955</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.435945324952</v>
+        <v>1793.253337739212</v>
       </c>
       <c r="W39" t="n">
-        <v>1539.19858859675</v>
+        <v>1539.015981011011</v>
       </c>
       <c r="X39" t="n">
-        <v>1331.347088391217</v>
+        <v>1331.164480805478</v>
       </c>
       <c r="Y39" t="n">
-        <v>1123.586789626263</v>
+        <v>1123.404182040524</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>773.9523799122558</v>
+        <v>773.9523799122564</v>
       </c>
       <c r="C40" t="n">
-        <v>652.4891931575808</v>
+        <v>652.4891931575814</v>
       </c>
       <c r="D40" t="n">
-        <v>549.845549918477</v>
+        <v>549.8455499184776</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4054525093159</v>
+        <v>449.4054525093163</v>
       </c>
       <c r="F40" t="n">
-        <v>349.9885011846375</v>
+        <v>349.9885011846378</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7581441889245</v>
+        <v>229.7581441889247</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0093610372572</v>
+        <v>131.0093610372573</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14114615210612</v>
+        <v>81.14114615210615</v>
       </c>
       <c r="J40" t="n">
         <v>172.7562692521668</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2129170267302</v>
+        <v>423.212917026731</v>
       </c>
       <c r="L40" t="n">
-        <v>786.2257313088559</v>
+        <v>786.2257313088567</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.831701204838</v>
+        <v>1176.831701204839</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.690889192795</v>
+        <v>1564.690889192796</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.477213484498</v>
+        <v>1910.477213484499</v>
       </c>
       <c r="P40" t="n">
         <v>2189.551767084125</v>
@@ -7354,28 +7354,28 @@
         <v>2313.647954042364</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.267267291655</v>
+        <v>2271.267267291656</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.045377344407</v>
+        <v>2127.045377344408</v>
       </c>
       <c r="T40" t="n">
         <v>1952.749551036965</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.119652160731</v>
+        <v>1711.119652160732</v>
       </c>
       <c r="V40" t="n">
-        <v>1503.908160128076</v>
+        <v>1503.908160128077</v>
       </c>
       <c r="W40" t="n">
         <v>1261.963986264348</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.447431539562</v>
+        <v>1081.447431539563</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.1278485692635</v>
+        <v>908.1278485692643</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1711.485016637536</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.692314204018</v>
+        <v>1400.692314204017</v>
       </c>
       <c r="E41" t="n">
         <v>1062.377057779005</v>
       </c>
       <c r="F41" t="n">
-        <v>698.8641491626294</v>
+        <v>698.8641491626292</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2635436353665</v>
+        <v>331.2635436353664</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J41" t="n">
         <v>269.9244860731009</v>
@@ -7421,13 +7421,13 @@
         <v>1908.694086450894</v>
       </c>
       <c r="N41" t="n">
-        <v>2455.27151928436</v>
+        <v>2852.552277438477</v>
       </c>
       <c r="O41" t="n">
-        <v>2958.053828750315</v>
+        <v>3355.334586904432</v>
       </c>
       <c r="P41" t="n">
-        <v>3671.246617830479</v>
+        <v>3749.946654894829</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.11113733614</v>
@@ -7436,7 +7436,7 @@
         <v>4057.057307605307</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.213394462759</v>
+        <v>3994.213394462758</v>
       </c>
       <c r="T41" t="n">
         <v>3835.703602129825</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.3714526061963</v>
+        <v>955.188845020456</v>
       </c>
       <c r="C42" t="n">
-        <v>780.9184233250693</v>
+        <v>780.735815739329</v>
       </c>
       <c r="D42" t="n">
-        <v>631.984013663818</v>
+        <v>631.8014060780778</v>
       </c>
       <c r="E42" t="n">
-        <v>472.7465586583625</v>
+        <v>472.5639510726223</v>
       </c>
       <c r="F42" t="n">
-        <v>326.2120006852475</v>
+        <v>326.0293930995073</v>
       </c>
       <c r="G42" t="n">
-        <v>189.8482843867098</v>
+        <v>189.6656768009695</v>
       </c>
       <c r="H42" t="n">
-        <v>99.34043949472995</v>
+        <v>99.15783190898971</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J42" t="n">
         <v>174.7613631567067</v>
       </c>
       <c r="K42" t="n">
-        <v>412.9280503512649</v>
+        <v>412.9280503512648</v>
       </c>
       <c r="L42" t="n">
         <v>779.4950940342351</v>
@@ -7512,28 +7512,28 @@
         <v>2578.750755592806</v>
       </c>
       <c r="R42" t="n">
-        <v>2578.750755592806</v>
+        <v>2578.568148007066</v>
       </c>
       <c r="S42" t="n">
-        <v>2449.3014247203</v>
+        <v>2449.118817134559</v>
       </c>
       <c r="T42" t="n">
-        <v>2256.655940957224</v>
+        <v>2256.473333371484</v>
       </c>
       <c r="U42" t="n">
-        <v>2028.588053556695</v>
+        <v>2028.405445970955</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.435945324953</v>
+        <v>1793.253337739212</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.198588596751</v>
+        <v>1539.015981011011</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.347088391218</v>
+        <v>1331.164480805478</v>
       </c>
       <c r="Y42" t="n">
-        <v>1123.586789626264</v>
+        <v>1123.404182040524</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.9523799122563</v>
+        <v>773.9523799122562</v>
       </c>
       <c r="C43" t="n">
-        <v>652.4891931575813</v>
+        <v>652.4891931575812</v>
       </c>
       <c r="D43" t="n">
-        <v>549.8455499184774</v>
+        <v>549.8455499184773</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4054525093162</v>
+        <v>449.4054525093161</v>
       </c>
       <c r="F43" t="n">
-        <v>349.9885011846378</v>
+        <v>349.9885011846377</v>
       </c>
       <c r="G43" t="n">
         <v>229.7581441889247</v>
@@ -7564,7 +7564,7 @@
         <v>131.0093610372573</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J43" t="n">
         <v>172.7562692521668</v>
@@ -7576,7 +7576,7 @@
         <v>786.225731308856</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.831701204839</v>
+        <v>1176.831701204838</v>
       </c>
       <c r="N43" t="n">
         <v>1564.690889192795</v>
@@ -7588,7 +7588,7 @@
         <v>2189.551767084125</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.647954042364</v>
+        <v>2313.647954042363</v>
       </c>
       <c r="R43" t="n">
         <v>2271.267267291655</v>
@@ -7597,22 +7597,22 @@
         <v>2127.045377344407</v>
       </c>
       <c r="T43" t="n">
-        <v>1952.749551036965</v>
+        <v>1952.749551036964</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.119652160732</v>
+        <v>1711.119652160731</v>
       </c>
       <c r="V43" t="n">
-        <v>1503.908160128077</v>
+        <v>1503.908160128076</v>
       </c>
       <c r="W43" t="n">
-        <v>1261.963986264348</v>
+        <v>1261.963986264347</v>
       </c>
       <c r="X43" t="n">
         <v>1081.447431539562</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.1278485692642</v>
+        <v>908.127848569264</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2032.974537404717</v>
+        <v>2032.974537404715</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.485016637537</v>
+        <v>1711.485016637536</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.692314204018</v>
+        <v>1400.692314204017</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.377057779006</v>
+        <v>1062.377057779005</v>
       </c>
       <c r="F44" t="n">
-        <v>698.8641491626304</v>
+        <v>698.864149162629</v>
       </c>
       <c r="G44" t="n">
         <v>331.2635436353664</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J44" t="n">
-        <v>437.3301350934539</v>
+        <v>269.9244860731009</v>
       </c>
       <c r="K44" t="n">
-        <v>771.0059428485572</v>
+        <v>603.6002938282043</v>
       </c>
       <c r="L44" t="n">
-        <v>1221.862049859949</v>
+        <v>1467.941003244542</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.195777025794</v>
+        <v>2001.274730410387</v>
       </c>
       <c r="N44" t="n">
-        <v>2301.77320985926</v>
+        <v>2547.852163243853</v>
       </c>
       <c r="O44" t="n">
-        <v>2804.555519325215</v>
+        <v>3355.334586904432</v>
       </c>
       <c r="P44" t="n">
-        <v>3517.74830840538</v>
+        <v>3749.946654894829</v>
       </c>
       <c r="Q44" t="n">
-        <v>3976.104631599996</v>
+        <v>3998.11113733614</v>
       </c>
       <c r="R44" t="n">
         <v>4057.057307605307</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.213394462759</v>
+        <v>3994.213394462758</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.703602129826</v>
+        <v>3835.703602129825</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.646029453255</v>
+        <v>3629.646029453254</v>
       </c>
       <c r="V44" t="n">
         <v>3346.056138282916</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.760479186034</v>
+        <v>3040.760479186033</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.767717098186</v>
+        <v>2714.767717098185</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.101381295606</v>
+        <v>2372.101381295605</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.3714526061963</v>
+        <v>955.188845020456</v>
       </c>
       <c r="C45" t="n">
-        <v>780.9184233250693</v>
+        <v>780.735815739329</v>
       </c>
       <c r="D45" t="n">
-        <v>631.984013663818</v>
+        <v>631.8014060780778</v>
       </c>
       <c r="E45" t="n">
-        <v>472.7465586583625</v>
+        <v>472.5639510726223</v>
       </c>
       <c r="F45" t="n">
-        <v>326.2120006852475</v>
+        <v>326.0293930995073</v>
       </c>
       <c r="G45" t="n">
-        <v>189.8482843867098</v>
+        <v>189.6656768009695</v>
       </c>
       <c r="H45" t="n">
-        <v>99.34043949472995</v>
+        <v>99.15783190898971</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J45" t="n">
         <v>174.7613631567067</v>
       </c>
       <c r="K45" t="n">
-        <v>412.9280503512649</v>
+        <v>412.9280503512648</v>
       </c>
       <c r="L45" t="n">
         <v>779.4950940342351</v>
@@ -7749,28 +7749,28 @@
         <v>2578.750755592806</v>
       </c>
       <c r="R45" t="n">
-        <v>2578.750755592806</v>
+        <v>2578.568148007066</v>
       </c>
       <c r="S45" t="n">
-        <v>2449.3014247203</v>
+        <v>2449.118817134559</v>
       </c>
       <c r="T45" t="n">
-        <v>2256.655940957224</v>
+        <v>2256.473333371484</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.588053556695</v>
+        <v>2028.405445970955</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.435945324953</v>
+        <v>1793.253337739212</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.198588596751</v>
+        <v>1539.015981011011</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.347088391218</v>
+        <v>1331.164480805478</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.586789626264</v>
+        <v>1123.404182040524</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>773.9523799122569</v>
+        <v>773.9523799122561</v>
       </c>
       <c r="C46" t="n">
-        <v>652.4891931575819</v>
+        <v>652.4891931575811</v>
       </c>
       <c r="D46" t="n">
-        <v>549.8455499184781</v>
+        <v>549.8455499184772</v>
       </c>
       <c r="E46" t="n">
-        <v>449.405452509317</v>
+        <v>449.405452509316</v>
       </c>
       <c r="F46" t="n">
-        <v>349.9885011846386</v>
+        <v>349.9885011846375</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7581441889257</v>
+        <v>229.7581441889245</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0093610372583</v>
+        <v>131.0093610372572</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14114615210615</v>
+        <v>81.14114615210613</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7562692521669</v>
+        <v>172.7562692521668</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2129170267303</v>
+        <v>423.2129170267302</v>
       </c>
       <c r="L46" t="n">
-        <v>786.2257313088561</v>
+        <v>786.2257313088559</v>
       </c>
       <c r="M46" t="n">
         <v>1176.831701204838</v>
@@ -7828,28 +7828,28 @@
         <v>2313.647954042364</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.267267291656</v>
+        <v>2271.267267291655</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.045377344408</v>
+        <v>2127.045377344407</v>
       </c>
       <c r="T46" t="n">
-        <v>1952.749551036966</v>
+        <v>1952.749551036965</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.119652160732</v>
+        <v>1711.119652160731</v>
       </c>
       <c r="V46" t="n">
-        <v>1503.908160128077</v>
+        <v>1503.908160128076</v>
       </c>
       <c r="W46" t="n">
         <v>1261.963986264348</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.447431539563</v>
+        <v>1081.447431539562</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.1278485692646</v>
+        <v>908.127848569264</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>236.69643713343</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
         <v>146.857819827733</v>
@@ -8140,13 +8140,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
         <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O4" t="n">
         <v>145.3325841935542</v>
@@ -8219,10 +8219,10 @@
         <v>226.965896786692</v>
       </c>
       <c r="L5" t="n">
-        <v>242.3646406817305</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N5" t="n">
         <v>236.2891093383024</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
         <v>140.8504531560417</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
         <v>145.8018296893165</v>
@@ -8386,7 +8386,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>250.4508600602684</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
         <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6588525046114</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>145.3054593055002</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.0218791784806</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8209194280063912</v>
+        <v>1.001700937889272</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145.3054593054983</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>211.0218791784826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8209194280063912</v>
+        <v>1.001700937889272</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>211.0218791784825</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.92526400640693</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8209194280063912</v>
+        <v>1.001700937889272</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>145.3054593054983</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>145.3054593055002</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8209194280063912</v>
+        <v>1.001700937889272</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>125.608988971964</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>125.6089889719649</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8209194280067287</v>
+        <v>1.001700937889581</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>59.13787469829657</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>346.1682138987427</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8209194280065297</v>
+        <v>1.001700937889371</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>134.7186878910844</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>35.60520907200043</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8209194280065297</v>
+        <v>1.001700937889385</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>356.5304134503409</v>
       </c>
       <c r="O32" t="n">
-        <v>312.8019191999325</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.001700937889257</v>
+        <v>1.001700937889286</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>191.3254088449463</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.84021824210518</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8209194280067145</v>
+        <v>1.001700937889566</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>307.7778931258835</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.49498693368636</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8209194280076417</v>
+        <v>1.001700937889566</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1807815098829337</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>401.2936951051688</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.4949869336867</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8209194280067287</v>
+        <v>1.001700937889552</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>307.7778931258831</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.22879367287248</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8209194280067287</v>
+        <v>1.001700937889552</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1807815098829053</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.735575451981</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>168.444750198763</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21547401112308</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9246944096034</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4.286164971383012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7539922586353</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>256.5591521423153</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>256.5591521423174</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>256.5591521423153</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21547401112307</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9246944096034</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>37.41898372159042</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>181.4474911837749</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21547401112308</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>119.2320171726532</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0263196372554</v>
       </c>
       <c r="H28" t="n">
-        <v>85.35376484976183</v>
+        <v>144.7595615316502</v>
       </c>
       <c r="I28" t="n">
         <v>96.36779894779913</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.95514609470131</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7779372592748</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5511342558674</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>239.4540837553316</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.88672719669128</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.2808122932283</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0263196372555</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7595615316503</v>
       </c>
       <c r="I31" t="n">
-        <v>96.36779894779919</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.95514609470136</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5511342558674</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118660989707</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.651826486317</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0666674030075</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4353193225921</v>
+        <v>146.4353193225922</v>
       </c>
       <c r="E34" t="n">
-        <v>144.2538089509489</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>34.47881567586427</v>
+        <v>143.2408943273111</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8461659416351</v>
+        <v>40.65369716686648</v>
       </c>
       <c r="H34" t="n">
-        <v>142.57940783603</v>
+        <v>142.5794078360301</v>
       </c>
       <c r="I34" t="n">
-        <v>94.18764525217887</v>
+        <v>94.187645252179</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.3709805602472</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.0317124033505</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773757.5622347821</v>
+        <v>773757.5622347823</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773757.5622347821</v>
+        <v>773757.5622347823</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815997.7100355993</v>
+        <v>815997.7100355994</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815997.7100355993</v>
+        <v>815997.7100355994</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825171.2807250653</v>
+        <v>825171.2807250652</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>635787.5290293169</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>605204.4873554253</v>
+        <v>605204.4873554255</v>
       </c>
       <c r="F2" t="n">
-        <v>605204.4873554251</v>
+        <v>605204.4873554255</v>
       </c>
       <c r="G2" t="n">
-        <v>605204.4873554253</v>
+        <v>605204.4873554255</v>
       </c>
       <c r="H2" t="n">
-        <v>605204.4873554254</v>
+        <v>605204.4873554255</v>
       </c>
       <c r="I2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615466.5131140503</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615466.5131140506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>616433.2780270641</v>
+      </c>
+      <c r="M2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="N2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="O2" t="n">
         <v>636307.37164482</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615466.5131140501</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615466.5131140504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>616433.2780270642</v>
-      </c>
-      <c r="M2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="N2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="O2" t="n">
-        <v>636307.3716448199</v>
       </c>
       <c r="P2" t="n">
         <v>636307.3716448199</v>
@@ -26375,7 +26375,7 @@
         <v>1172378.368591052</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34547.55111764894</v>
+        <v>34547.55111764887</v>
       </c>
       <c r="J3" t="n">
-        <v>48965.96305185514</v>
+        <v>48965.96305185506</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.12295649625</v>
+        <v>1744.122956496154</v>
       </c>
       <c r="M3" t="n">
-        <v>209599.6310682663</v>
+        <v>209599.6310682665</v>
       </c>
       <c r="N3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>408996.6277656587</v>
       </c>
       <c r="C4" t="n">
-        <v>408996.6277656588</v>
+        <v>408996.6277656587</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897232</v>
+        <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>60267.0547937743</v>
+        <v>60267.05479377431</v>
       </c>
       <c r="F4" t="n">
-        <v>60267.0547937743</v>
+        <v>60267.05479377435</v>
       </c>
       <c r="G4" t="n">
-        <v>60267.05479377428</v>
+        <v>60267.05479377434</v>
       </c>
       <c r="H4" t="n">
-        <v>60267.0547937743</v>
+        <v>60267.05479377434</v>
       </c>
       <c r="I4" t="n">
-        <v>72612.75962738565</v>
+        <v>72612.75962738569</v>
       </c>
       <c r="J4" t="n">
+        <v>42493.97553744441</v>
+      </c>
+      <c r="K4" t="n">
         <v>42493.97553744438</v>
       </c>
-      <c r="K4" t="n">
-        <v>42493.97553744436</v>
-      </c>
       <c r="L4" t="n">
-        <v>43896.34947868896</v>
+        <v>43896.34947868891</v>
       </c>
       <c r="M4" t="n">
         <v>72612.75962738565</v>
       </c>
       <c r="N4" t="n">
-        <v>72612.75962738571</v>
+        <v>72612.75962738562</v>
       </c>
       <c r="O4" t="n">
         <v>72612.75962738565</v>
       </c>
       <c r="P4" t="n">
-        <v>72612.75962738569</v>
+        <v>72612.75962738565</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>81470.3892576526</v>
+        <v>81470.38925765261</v>
       </c>
       <c r="F5" t="n">
-        <v>81470.3892576526</v>
+        <v>81470.38925765263</v>
       </c>
       <c r="G5" t="n">
-        <v>81470.3892576526</v>
+        <v>81470.38925765263</v>
       </c>
       <c r="H5" t="n">
-        <v>81470.3892576526</v>
+        <v>81470.38925765263</v>
       </c>
       <c r="I5" t="n">
-        <v>89369.31829279105</v>
+        <v>89369.31829279107</v>
       </c>
       <c r="J5" t="n">
         <v>96378.71212226714</v>
       </c>
       <c r="K5" t="n">
-        <v>96378.71212226714</v>
+        <v>96378.71212226716</v>
       </c>
       <c r="L5" t="n">
-        <v>96049.65260348006</v>
+        <v>96049.65260348008</v>
       </c>
       <c r="M5" t="n">
         <v>89369.31829279105</v>
       </c>
       <c r="N5" t="n">
-        <v>89369.31829279104</v>
+        <v>89369.31829279105</v>
       </c>
       <c r="O5" t="n">
         <v>89369.31829279105</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190440.9166054627</v>
+        <v>190439.2396937998</v>
       </c>
       <c r="C6" t="n">
-        <v>192745.237682562</v>
+        <v>192743.5607708992</v>
       </c>
       <c r="D6" t="n">
-        <v>191008.7011485975</v>
+        <v>191008.7011485974</v>
       </c>
       <c r="E6" t="n">
-        <v>-708911.3252870536</v>
+        <v>-709011.6571718579</v>
       </c>
       <c r="F6" t="n">
-        <v>463467.0433039983</v>
+        <v>463366.711419194</v>
       </c>
       <c r="G6" t="n">
-        <v>463467.0433039984</v>
+        <v>463366.711419194</v>
       </c>
       <c r="H6" t="n">
-        <v>463467.0433039985</v>
+        <v>463366.711419194</v>
       </c>
       <c r="I6" t="n">
         <v>439777.7426069943</v>
       </c>
       <c r="J6" t="n">
-        <v>427627.8624024835</v>
+        <v>427560.6338265779</v>
       </c>
       <c r="K6" t="n">
-        <v>476593.8254543389</v>
+        <v>476526.5968784334</v>
       </c>
       <c r="L6" t="n">
-        <v>474743.1529883989</v>
+        <v>474679.0430089867</v>
       </c>
       <c r="M6" t="n">
-        <v>264725.6626563766</v>
+        <v>264725.6626563767</v>
       </c>
       <c r="N6" t="n">
-        <v>474325.2937246428</v>
+        <v>474325.2937246431</v>
       </c>
       <c r="O6" t="n">
-        <v>474325.2937246432</v>
+        <v>474325.2937246433</v>
       </c>
       <c r="P6" t="n">
         <v>474325.2937246432</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F2" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="G2" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="H2" t="n">
         <v>46.99826621149958</v>
       </c>
       <c r="I2" t="n">
+        <v>46.99826621149958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.180153695620192</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.99826621149955</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.99826621149952</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.99826621149957</v>
       </c>
-      <c r="J2" t="n">
-        <v>6.002665031701325e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.180153695620312</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>46.99826621149957</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.9982662114996</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.99826621149955</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.9982662114996</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>884.3477309286546</v>
+        <v>884.3477309286551</v>
       </c>
       <c r="F4" t="n">
-        <v>884.3477309286546</v>
+        <v>884.3477309286551</v>
       </c>
       <c r="G4" t="n">
-        <v>884.3477309286546</v>
+        <v>884.3477309286551</v>
       </c>
       <c r="H4" t="n">
-        <v>884.3477309286546</v>
+        <v>884.3477309286551</v>
       </c>
       <c r="I4" t="n">
         <v>1014.264326901327</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="M2" t="n">
-        <v>44.81811251587926</v>
+        <v>44.81811251587936</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>869.0449934135196</v>
+        <v>869.04499341352</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>129.9165959726721</v>
+        <v>129.9165959726719</v>
       </c>
       <c r="J4" t="n">
-        <v>187.1472804721495</v>
+        <v>187.1472804721494</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>697.2004504565052</v>
+        <v>697.2004504565053</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>869.0449934135196</v>
+        <v>869.04499341352</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>333.4183810264677</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27430,10 +27430,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>216.2198038224199</v>
       </c>
       <c r="U2" t="n">
-        <v>245.2892318185371</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>362.8550549367576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,16 +27515,16 @@
         <v>219.0653363392634</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
-        <v>200.4631554404359</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6262746880049</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>142.5590519289129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>171.2369702878701</v>
       </c>
       <c r="S4" t="n">
         <v>217.1405522952608</v>
@@ -27591,13 +27591,13 @@
         <v>221.0695436865701</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>202.1440238445339</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0336874001691</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>93.2817884109317</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.1149336167473</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27816,22 +27816,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8891683389821</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>246.0812222345286</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6276325571267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>325.9961509124362</v>
+        <v>332.8721966541476</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>76.66457297434199</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>86.67918294931219</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,34 +28050,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>214.4669382249506</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
-        <v>275.7657878683665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="C11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="D11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="E11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="G11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="H11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="I11" t="n">
         <v>41.62088078089133</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="T11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="U11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="V11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="W11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="X11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="C13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="D13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="E13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="G13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="H13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="I13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="J13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="K13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="L13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="M13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="N13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="O13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="P13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="R13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="S13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="T13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="U13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="V13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="W13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="X13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149955</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="C14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="D14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="E14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="F14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="G14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="H14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="I14" t="n">
         <v>41.62088078089133</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="T14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="U14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="V14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="W14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="X14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="C16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="D16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="E16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="F16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="G16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="H16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="I16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="J16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="K16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="L16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="M16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="N16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="O16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="P16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="R16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="S16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="T16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="U16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="V16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="W16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="X16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.99826621149959</v>
+        <v>46.9982662114996</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="C17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="D17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="E17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="F17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="G17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="H17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="I17" t="n">
         <v>41.62088078089133</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="T17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="U17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="V17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="W17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="X17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="C19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="D19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="E19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="F19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="G19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="H19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="I19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="J19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="K19" t="n">
-        <v>46.99826621149867</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="L19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="M19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="N19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="O19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="P19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="R19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="S19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="T19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="U19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="V19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="W19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="X19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.99826621149959</v>
+        <v>46.99826621149958</v>
       </c>
     </row>
     <row r="20">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="C23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="D23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="E23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="F23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="G23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="H23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="I23" t="n">
         <v>41.62088078089133</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="T23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="U23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="V23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="W23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="X23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="C25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="D25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="E25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="F25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="G25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="H25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="I25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="J25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="K25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="L25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="M25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="N25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="O25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="P25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="R25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="S25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="T25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="U25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="V25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="W25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="X25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149958</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="C32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="D32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="E32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="F32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="G32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="H32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="I32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="U32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="V32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="W32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="X32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="D34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="E34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="F34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="G34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="H34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="I34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="J34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="K34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="L34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="M34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="N34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="O34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="P34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="R34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="S34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="T34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="U34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="V34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="W34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="X34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.180153695620312</v>
+        <v>2.180153695620192</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="C35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="D35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="E35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="G35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="H35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="I35" t="n">
         <v>41.62088078089133</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="T35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="U35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="V35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="W35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="X35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="C37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="D37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="E37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="F37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="G37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="H37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="I37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="J37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="K37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="L37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="M37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="N37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="O37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="P37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="R37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="S37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="T37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="U37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="V37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="W37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="X37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.99826621149957</v>
+        <v>46.99826621149955</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="C38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="D38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="E38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="F38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="G38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="H38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="I38" t="n">
-        <v>41.62088078089138</v>
+        <v>41.62088078089133</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="T38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="U38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="V38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="W38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="X38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621150035</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149952</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="C41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="D41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="E41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="F41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="G41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="H41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="I41" t="n">
         <v>41.62088078089133</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="T41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="U41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="V41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="W41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="X41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="C43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="D43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="E43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="F43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="G43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="H43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="I43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="J43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="K43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="L43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="M43" t="n">
-        <v>46.99826621149975</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="N43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="O43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="P43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="R43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="S43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="T43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="U43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="V43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="W43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="X43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.99826621149955</v>
+        <v>46.99826621149957</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="I44" t="n">
         <v>41.62088078089133</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9982662114996</v>
+        <v>46.99826621149957</v>
       </c>
     </row>
   </sheetData>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.379871831645532</v>
+        <v>4.379871831645533</v>
       </c>
       <c r="H38" t="n">
-        <v>44.85536239583982</v>
+        <v>44.85536239583983</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8550087895145</v>
+        <v>168.8550087895146</v>
       </c>
       <c r="J38" t="n">
-        <v>371.7361468711253</v>
+        <v>371.7361468711254</v>
       </c>
       <c r="K38" t="n">
-        <v>557.1361215046808</v>
+        <v>557.1361215046809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.1766240724029</v>
+        <v>691.176624072403</v>
       </c>
       <c r="M38" t="n">
-        <v>769.067169758429</v>
+        <v>769.0671697584293</v>
       </c>
       <c r="N38" t="n">
-        <v>781.511480600092</v>
+        <v>781.5114806000922</v>
       </c>
       <c r="O38" t="n">
-        <v>737.9591300741668</v>
+        <v>737.9591300741669</v>
       </c>
       <c r="P38" t="n">
-        <v>629.8310442304175</v>
+        <v>629.8310442304177</v>
       </c>
       <c r="Q38" t="n">
-        <v>472.9768842596118</v>
+        <v>472.9768842596119</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1271239446039</v>
+        <v>275.127123944604</v>
       </c>
       <c r="S38" t="n">
-        <v>99.80632936362267</v>
+        <v>99.80632936362268</v>
       </c>
       <c r="T38" t="n">
         <v>19.17288894302833</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3503897465316425</v>
+        <v>0.3503897465316426</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.343438027658269</v>
+        <v>2.34343802765827</v>
       </c>
       <c r="H39" t="n">
         <v>22.63267779343645</v>
       </c>
       <c r="I39" t="n">
-        <v>80.68416016279568</v>
+        <v>80.68416016279571</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4035024288894</v>
+        <v>221.4035024288895</v>
       </c>
       <c r="K39" t="n">
         <v>378.4138502819935</v>
       </c>
       <c r="L39" t="n">
-        <v>508.8241208737834</v>
+        <v>508.8241208737836</v>
       </c>
       <c r="M39" t="n">
-        <v>593.7737493763956</v>
+        <v>593.7737493763957</v>
       </c>
       <c r="N39" t="n">
-        <v>609.4891736934549</v>
+        <v>609.489173693455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.56352055429</v>
+        <v>557.5635205542901</v>
       </c>
       <c r="P39" t="n">
-        <v>447.4938809130953</v>
+        <v>447.4938809130954</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.1378085831854</v>
+        <v>299.1378085831855</v>
       </c>
       <c r="R39" t="n">
         <v>145.498722454081</v>
       </c>
       <c r="S39" t="n">
-        <v>43.52833354005598</v>
+        <v>43.52833354005599</v>
       </c>
       <c r="T39" t="n">
-        <v>9.445699769376967</v>
+        <v>9.44569976937697</v>
       </c>
       <c r="U39" t="n">
         <v>0.154173554451202</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.964659721203294</v>
+        <v>1.964659721203295</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4676109757893</v>
+        <v>17.46761097578931</v>
       </c>
       <c r="I40" t="n">
-        <v>59.08267597945908</v>
+        <v>59.0826759794591</v>
       </c>
       <c r="J40" t="n">
         <v>138.9014422890729</v>
@@ -34059,28 +34059,28 @@
         <v>292.0913189141698</v>
       </c>
       <c r="M40" t="n">
-        <v>307.9693415700763</v>
+        <v>307.9693415700764</v>
       </c>
       <c r="N40" t="n">
-        <v>300.6465189728643</v>
+        <v>300.6465189728644</v>
       </c>
       <c r="O40" t="n">
         <v>277.6957213206258</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6166630080783</v>
+        <v>237.6166630080784</v>
       </c>
       <c r="Q40" t="n">
         <v>164.5134608363959</v>
       </c>
       <c r="R40" t="n">
-        <v>88.33824528246809</v>
+        <v>88.33824528246812</v>
       </c>
       <c r="S40" t="n">
         <v>34.2386607776974</v>
       </c>
       <c r="T40" t="n">
-        <v>8.394455172414073</v>
+        <v>8.394455172414075</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071632575201798</v>
@@ -34708,13 +34708,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34860,13 +34860,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O4" t="n">
         <v>6.876045741711437</v>
@@ -34939,10 +34939,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P6" t="n">
         <v>6.876045741711437</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35106,7 +35106,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>190.6902423444391</v>
       </c>
       <c r="K11" t="n">
-        <v>337.0462704597003</v>
+        <v>482.3517297652005</v>
       </c>
       <c r="L11" t="n">
         <v>455.4102091024158</v>
@@ -35428,10 +35428,10 @@
         <v>398.5980484751481</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.6930735636431</v>
+        <v>250.6711943851624</v>
       </c>
       <c r="R11" t="n">
-        <v>59.54158613047184</v>
+        <v>125.2580060034543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.54052838389973</v>
+        <v>92.5405283838997</v>
       </c>
       <c r="K13" t="n">
         <v>252.9865129035994</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6796103859856</v>
+        <v>366.6796103859855</v>
       </c>
       <c r="M13" t="n">
-        <v>394.5514847434166</v>
+        <v>394.5514847434165</v>
       </c>
       <c r="N13" t="n">
         <v>391.7769575635925</v>
@@ -35586,7 +35586,7 @@
         <v>281.8934884844714</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3496837962011</v>
+        <v>125.349683796201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>335.9957016499375</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K14" t="n">
         <v>337.0462704597003</v>
@@ -35662,13 +35662,13 @@
         <v>507.8609186524801</v>
       </c>
       <c r="P14" t="n">
-        <v>398.5980484751481</v>
+        <v>609.6199276536307</v>
       </c>
       <c r="Q14" t="n">
         <v>250.6711943851624</v>
       </c>
       <c r="R14" t="n">
-        <v>125.2580060034543</v>
+        <v>59.54158613047184</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.54052838389973</v>
+        <v>92.54052838389975</v>
       </c>
       <c r="K16" t="n">
-        <v>252.9865129035994</v>
+        <v>252.9865129035995</v>
       </c>
       <c r="L16" t="n">
         <v>366.6796103859856</v>
@@ -35814,7 +35814,7 @@
         <v>394.5514847434166</v>
       </c>
       <c r="N16" t="n">
-        <v>391.7769575635925</v>
+        <v>391.7769575635926</v>
       </c>
       <c r="O16" t="n">
         <v>349.2791154461651</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.7868575165129</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K17" t="n">
         <v>337.0462704597003</v>
@@ -35896,7 +35896,7 @@
         <v>552.0984170035013</v>
       </c>
       <c r="O17" t="n">
-        <v>507.8609186524801</v>
+        <v>718.8827978309627</v>
       </c>
       <c r="P17" t="n">
         <v>398.5980484751481</v>
@@ -35905,7 +35905,7 @@
         <v>250.6711943851624</v>
       </c>
       <c r="R17" t="n">
-        <v>101.4668501368788</v>
+        <v>59.54158613047184</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>92.54052838389973</v>
       </c>
       <c r="K19" t="n">
-        <v>252.9865129035985</v>
+        <v>252.9865129035994</v>
       </c>
       <c r="L19" t="n">
         <v>366.6796103859856</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>335.9957016499375</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K20" t="n">
-        <v>337.0462704597003</v>
+        <v>482.3517297652005</v>
       </c>
       <c r="L20" t="n">
         <v>455.4102091024158</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>316.2992313164031</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K23" t="n">
-        <v>337.0462704597003</v>
+        <v>462.6552594316653</v>
       </c>
       <c r="L23" t="n">
         <v>455.4102091024158</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.54052838389971</v>
+        <v>92.54052838389973</v>
       </c>
       <c r="K25" t="n">
         <v>252.9865129035994</v>
       </c>
       <c r="L25" t="n">
-        <v>366.6796103859855</v>
+        <v>366.6796103859856</v>
       </c>
       <c r="M25" t="n">
         <v>394.5514847434166</v>
@@ -36598,25 +36598,25 @@
         <v>661.1916830308651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.4102091024158</v>
+        <v>514.5480838007123</v>
       </c>
       <c r="M26" t="n">
-        <v>538.7209365311566</v>
+        <v>988.234470023989</v>
       </c>
       <c r="N26" t="n">
-        <v>552.0984170035013</v>
+        <v>989.4453414154855</v>
       </c>
       <c r="O26" t="n">
-        <v>854.0291325512228</v>
+        <v>507.8609186524801</v>
       </c>
       <c r="P26" t="n">
-        <v>720.3967566466308</v>
+        <v>398.5980484751481</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.9861850450671</v>
+        <v>250.6711943851624</v>
       </c>
       <c r="R26" t="n">
-        <v>125.2580060034543</v>
+        <v>59.54158613047184</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>190.6902423444391</v>
       </c>
       <c r="K29" t="n">
-        <v>337.0462704597003</v>
+        <v>661.1916830308651</v>
       </c>
       <c r="L29" t="n">
         <v>873.0714236528662</v>
@@ -36841,16 +36841,16 @@
         <v>988.234470023989</v>
       </c>
       <c r="N29" t="n">
-        <v>989.4453414154855</v>
+        <v>552.0984170035013</v>
       </c>
       <c r="O29" t="n">
-        <v>642.5796065435645</v>
+        <v>507.8609186524801</v>
       </c>
       <c r="P29" t="n">
-        <v>398.5980484751481</v>
+        <v>434.2032575471486</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.6711943851624</v>
+        <v>462.9861850450671</v>
       </c>
       <c r="R29" t="n">
         <v>59.54158613047184</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.7868575165129</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K32" t="n">
-        <v>661.1916830308651</v>
+        <v>337.0462704597003</v>
       </c>
       <c r="L32" t="n">
         <v>455.4102091024158</v>
       </c>
       <c r="M32" t="n">
-        <v>538.7209365311566</v>
+        <v>988.234470023989</v>
       </c>
       <c r="N32" t="n">
-        <v>552.0984170035013</v>
+        <v>908.6288304538422</v>
       </c>
       <c r="O32" t="n">
-        <v>820.6628378524126</v>
+        <v>507.8609186524801</v>
       </c>
       <c r="P32" t="n">
         <v>720.3967566466308</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.72241586802045</v>
+        <v>47.72241586802033</v>
       </c>
       <c r="K34" t="n">
-        <v>208.1684003877202</v>
+        <v>208.1684003877201</v>
       </c>
       <c r="L34" t="n">
-        <v>321.8614978701063</v>
+        <v>321.8614978701062</v>
       </c>
       <c r="M34" t="n">
-        <v>349.7333722275373</v>
+        <v>349.7333722275372</v>
       </c>
       <c r="N34" t="n">
-        <v>346.9588450477133</v>
+        <v>346.9588450477132</v>
       </c>
       <c r="O34" t="n">
-        <v>304.4610029302858</v>
+        <v>304.4610029302857</v>
       </c>
       <c r="P34" t="n">
-        <v>237.0753759685922</v>
+        <v>237.0753759685921</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.53157128032183</v>
+        <v>80.5315712803217</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,19 +37312,19 @@
         <v>455.4102091024158</v>
       </c>
       <c r="M35" t="n">
-        <v>538.7209365311566</v>
+        <v>730.0463453761029</v>
       </c>
       <c r="N35" t="n">
         <v>552.0984170035013</v>
       </c>
       <c r="O35" t="n">
-        <v>888.6610999152255</v>
+        <v>507.8609186524801</v>
       </c>
       <c r="P35" t="n">
         <v>720.3967566466308</v>
       </c>
       <c r="Q35" t="n">
-        <v>273.5114126272676</v>
+        <v>462.9861850450671</v>
       </c>
       <c r="R35" t="n">
         <v>59.54158613047184</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.54052838389971</v>
+        <v>92.5405283838997</v>
       </c>
       <c r="K37" t="n">
         <v>252.9865129035994</v>
@@ -37470,19 +37470,19 @@
         <v>366.6796103859855</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5514847434166</v>
+        <v>394.5514847434165</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7769575635926</v>
+        <v>391.7769575635925</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2791154461651</v>
+        <v>349.279115446165</v>
       </c>
       <c r="P37" t="n">
         <v>281.8934884844714</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3496837962011</v>
+        <v>125.349683796201</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.690242344439</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K38" t="n">
-        <v>661.191683030865</v>
+        <v>337.0462704597003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.4102091024156</v>
+        <v>873.0714236528662</v>
       </c>
       <c r="M38" t="n">
-        <v>538.7209365311563</v>
+        <v>538.7209365311566</v>
       </c>
       <c r="N38" t="n">
-        <v>552.098417003501</v>
+        <v>552.0984170035013</v>
       </c>
       <c r="O38" t="n">
-        <v>507.86091865248</v>
+        <v>507.8609186524801</v>
       </c>
       <c r="P38" t="n">
-        <v>720.3967566466306</v>
+        <v>706.3759416010316</v>
       </c>
       <c r="Q38" t="n">
-        <v>330.1661813188487</v>
+        <v>250.6711943851624</v>
       </c>
       <c r="R38" t="n">
-        <v>59.54158613047179</v>
+        <v>59.54158613047184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.56587576222273</v>
+        <v>94.56587576222276</v>
       </c>
       <c r="K39" t="n">
         <v>240.5724113076345</v>
       </c>
       <c r="L39" t="n">
-        <v>370.2697410939093</v>
+        <v>370.2697410939094</v>
       </c>
       <c r="M39" t="n">
-        <v>451.6397154543773</v>
+        <v>451.6397154543774</v>
       </c>
       <c r="N39" t="n">
-        <v>478.1474616101216</v>
+        <v>478.1474616101217</v>
       </c>
       <c r="O39" t="n">
-        <v>414.9672761098456</v>
+        <v>414.9672761098457</v>
       </c>
       <c r="P39" t="n">
-        <v>313.5194734987651</v>
+        <v>313.5194734987652</v>
       </c>
       <c r="Q39" t="n">
         <v>159.1560344971639</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.54052838389973</v>
+        <v>92.54052838389967</v>
       </c>
       <c r="K40" t="n">
-        <v>252.9865129035994</v>
+        <v>252.9865129036002</v>
       </c>
       <c r="L40" t="n">
         <v>366.6796103859855</v>
@@ -37713,13 +37713,13 @@
         <v>391.7769575635925</v>
       </c>
       <c r="O40" t="n">
-        <v>349.2791154461651</v>
+        <v>349.279115446165</v>
       </c>
       <c r="P40" t="n">
         <v>281.8934884844714</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3496837962011</v>
+        <v>125.349683796201</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,16 +37789,16 @@
         <v>538.7209365311566</v>
       </c>
       <c r="N41" t="n">
-        <v>552.0984170035013</v>
+        <v>953.3921121086701</v>
       </c>
       <c r="O41" t="n">
         <v>507.8609186524801</v>
       </c>
       <c r="P41" t="n">
-        <v>720.3967566466308</v>
+        <v>398.5980484751481</v>
       </c>
       <c r="Q41" t="n">
-        <v>330.1661813188491</v>
+        <v>250.6711943851624</v>
       </c>
       <c r="R41" t="n">
         <v>59.54158613047184</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5405283838997</v>
+        <v>92.54052838389971</v>
       </c>
       <c r="K43" t="n">
         <v>252.9865129035994</v>
@@ -37944,10 +37944,10 @@
         <v>366.6796103859855</v>
       </c>
       <c r="M43" t="n">
-        <v>394.5514847434167</v>
+        <v>394.5514847434166</v>
       </c>
       <c r="N43" t="n">
-        <v>391.7769575635925</v>
+        <v>391.7769575635926</v>
       </c>
       <c r="O43" t="n">
         <v>349.2791154461651</v>
@@ -37956,7 +37956,7 @@
         <v>281.8934884844714</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.349683796201</v>
+        <v>125.3496837962011</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.7868575165129</v>
+        <v>190.6902423444391</v>
       </c>
       <c r="K44" t="n">
         <v>337.0462704597003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.4102091024158</v>
+        <v>873.0714236528662</v>
       </c>
       <c r="M44" t="n">
         <v>538.7209365311566</v>
@@ -38029,16 +38029,16 @@
         <v>552.0984170035013</v>
       </c>
       <c r="O44" t="n">
-        <v>507.8609186524801</v>
+        <v>815.6388117783632</v>
       </c>
       <c r="P44" t="n">
-        <v>720.3967566466308</v>
+        <v>398.5980484751481</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.9861850450671</v>
+        <v>250.6711943851624</v>
       </c>
       <c r="R44" t="n">
-        <v>81.77037980334433</v>
+        <v>59.54158613047184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.54052838389975</v>
+        <v>92.54052838389971</v>
       </c>
       <c r="K46" t="n">
-        <v>252.9865129035995</v>
+        <v>252.9865129035994</v>
       </c>
       <c r="L46" t="n">
-        <v>366.6796103859856</v>
+        <v>366.6796103859855</v>
       </c>
       <c r="M46" t="n">
         <v>394.5514847434166</v>
